--- a/参考/参考/资料/1.18版本策划.xlsx
+++ b/参考/参考/资料/1.18版本策划.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hqyzsy\IdeaProjects\micro_machinery\参考\资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hqyzsy\IdeaProjects\micro_machinery\参考\参考\资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7B091C-34E2-4906-ADCD-56C064ED8C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A373789-6352-4FD5-949C-D8C4BC4D5091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1106" yWindow="1106" windowWidth="24685" windowHeight="13148" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增方块" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="新增多方块机器" sheetId="5" r:id="rId5"/>
     <sheet name="参数" sheetId="8" r:id="rId6"/>
     <sheet name="物流体系" sheetId="9" r:id="rId7"/>
+    <sheet name="具有方向的方块" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -758,8 +759,84 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>hqyzsy</author>
+  </authors>
+  <commentList>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{382CDA86-A677-4E10-994E-6CA99CDA1A62}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>hqyzsy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+红石控制、数据模块、智能模块</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{9DBA5250-D938-424D-AC47-091E722EE63D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>hqyzsy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+显示附着的机器信息</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{5A363E60-3793-4475-A0D5-9CA8C3A2114F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>hqyzsy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+固定最大转速、最高温度、并提升能效</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="845">
   <si>
     <t>矿石</t>
   </si>
@@ -4671,7 +4748,7 @@
   <dimension ref="B1:R26"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="Q11" sqref="Q11:R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -7084,7 +7161,7 @@
   <dimension ref="B1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:G10"/>
+      <selection activeCell="B6" sqref="B6:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.6" x14ac:dyDescent="0.35"/>
@@ -7447,9 +7524,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.6" x14ac:dyDescent="0.35"/>
@@ -8233,4 +8310,175 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFEB8F8-E36E-4DF4-8BF1-CDAF52A13A50}">
+  <dimension ref="A2:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>571</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.6" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.6" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
+      <c r="A9" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.6" x14ac:dyDescent="0.35">
+      <c r="A10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
+      <c r="A11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
+      <c r="A12" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/参考/参考/资料/1.18版本策划.xlsx
+++ b/参考/参考/资料/1.18版本策划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hqyzsy\IdeaProjects\micro_machinery\参考\参考\资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A373789-6352-4FD5-949C-D8C4BC4D5091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEDF1C7-2C24-4342-85AC-0E941297A16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增方块" sheetId="1" r:id="rId1"/>
@@ -4299,7 +4299,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4309,6 +4309,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4325,7 +4331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4469,6 +4475,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4747,8 +4756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R26"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11:R11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -4804,13 +4813,13 @@
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="42" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="42" t="s">
         <v>666</v>
       </c>
       <c r="G2" s="11"/>
@@ -4843,13 +4852,13 @@
       <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="50" t="s">
         <v>644</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="42" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="11"/>
@@ -4882,7 +4891,7 @@
       <c r="B4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="42" t="s">
         <v>652</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -5126,7 +5135,7 @@
       <c r="B11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="50" t="s">
         <v>655</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -5161,7 +5170,7 @@
       <c r="E12" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="50" t="s">
         <v>674</v>
       </c>
       <c r="G12" s="11"/>
@@ -5189,7 +5198,7 @@
       <c r="E13" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="50" t="s">
         <v>675</v>
       </c>
       <c r="G13" s="11"/>
@@ -5322,7 +5331,7 @@
       <c r="B18" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="50" t="s">
         <v>645</v>
       </c>
       <c r="E18" s="10" t="s">
@@ -5356,7 +5365,7 @@
       <c r="E19" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="50" t="s">
         <v>680</v>
       </c>
       <c r="G19" s="11"/>
@@ -5395,7 +5404,7 @@
       <c r="B21" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="50" t="s">
         <v>654</v>
       </c>
       <c r="K21" s="10" t="s">
@@ -5415,7 +5424,7 @@
       <c r="B22" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="42" t="s">
         <v>653</v>
       </c>
       <c r="E22" s="31"/>
@@ -5797,8 +5806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AP28"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AM11" sqref="AM11:AM16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -8316,7 +8325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFEB8F8-E36E-4DF4-8BF1-CDAF52A13A50}">
   <dimension ref="A2:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/参考/参考/资料/1.18版本策划.xlsx
+++ b/参考/参考/资料/1.18版本策划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hqyzsy\IdeaProjects\micro_machinery\参考\参考\资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEDF1C7-2C24-4342-85AC-0E941297A16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D7D0CA-B4A8-49B8-8382-B5A7DA135651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增方块" sheetId="1" r:id="rId1"/>
@@ -1675,9 +1675,6 @@
     <t>铁锤</t>
   </si>
   <si>
-    <t>iron_hammer</t>
-  </si>
-  <si>
     <t>不锈钢粉</t>
   </si>
   <si>
@@ -4078,6 +4075,10 @@
   <si>
     <t>工作时渲染输入物品，随传送带移动，锤头下压，输入物品替换为产物，随后锤头回归</t>
     <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron_hammer</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4461,6 +4462,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4475,9 +4479,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4756,7 +4757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
@@ -4794,13 +4795,13 @@
         <v>1</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="L1" s="39" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>3</v>
@@ -4820,14 +4821,14 @@
         <v>7</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="31" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>8</v>
@@ -4836,10 +4837,10 @@
         <v>9</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Q2" s="17" t="s">
         <v>10</v>
@@ -4852,8 +4853,8 @@
       <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>644</v>
+      <c r="C3" s="45" t="s">
+        <v>643</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>13</v>
@@ -4863,10 +4864,10 @@
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="31" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>15</v>
@@ -4884,7 +4885,7 @@
         <v>19</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.35">
@@ -4892,20 +4893,20 @@
         <v>20</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="31" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>22</v>
@@ -4923,28 +4924,28 @@
         <v>26</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B5" s="31" t="s">
+        <v>614</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>615</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>616</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="31" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>28</v>
@@ -4970,20 +4971,20 @@
         <v>34</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="31" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>36</v>
@@ -5004,14 +5005,14 @@
         <v>40</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I7" s="11"/>
       <c r="N7" s="10" t="s">
         <v>41</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.35">
@@ -5019,20 +5020,20 @@
         <v>42</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="31" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>44</v>
@@ -5044,7 +5045,7 @@
         <v>46</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>47</v>
@@ -5058,20 +5059,20 @@
         <v>49</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="31" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>51</v>
@@ -5083,7 +5084,7 @@
         <v>53</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="Q9" s="10" t="s">
         <v>54</v>
@@ -5097,20 +5098,20 @@
         <v>56</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>57</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="31" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>58</v>
@@ -5122,7 +5123,7 @@
         <v>60</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Q10" s="10" t="s">
         <v>61</v>
@@ -5135,21 +5136,21 @@
       <c r="B11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="50" t="s">
-        <v>655</v>
+      <c r="C11" s="45" t="s">
+        <v>654</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>64</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="31" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>65</v>
@@ -5170,8 +5171,8 @@
       <c r="E12" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="50" t="s">
-        <v>674</v>
+      <c r="F12" s="45" t="s">
+        <v>673</v>
       </c>
       <c r="G12" s="11"/>
       <c r="I12" s="11"/>
@@ -5185,21 +5186,21 @@
         <v>72</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B13" s="31" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="50" t="s">
-        <v>675</v>
+      <c r="F13" s="45" t="s">
+        <v>674</v>
       </c>
       <c r="G13" s="11"/>
       <c r="I13" s="11"/>
@@ -5213,13 +5214,13 @@
         <v>76</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q13" s="31" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.35">
@@ -5227,19 +5228,19 @@
         <v>77</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="N14" s="17" t="s">
         <v>78</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="Q14" s="31" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.35">
@@ -5247,13 +5248,13 @@
         <v>79</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>80</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G15" s="11"/>
       <c r="I15" s="11"/>
@@ -5267,13 +5268,13 @@
         <v>83</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q15" s="31" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.35">
@@ -5281,13 +5282,13 @@
         <v>84</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>85</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G16" s="11"/>
       <c r="I16" s="11"/>
@@ -5298,10 +5299,10 @@
         <v>87</v>
       </c>
       <c r="Q16" s="31" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.35">
@@ -5309,7 +5310,7 @@
         <v>88</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G17" s="11"/>
       <c r="I17" s="11"/>
@@ -5331,14 +5332,14 @@
       <c r="B18" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="50" t="s">
-        <v>645</v>
+      <c r="C18" s="45" t="s">
+        <v>644</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>94</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G18" s="11"/>
       <c r="I18" s="11"/>
@@ -5360,21 +5361,21 @@
         <v>99</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="50" t="s">
-        <v>680</v>
+      <c r="F19" s="45" t="s">
+        <v>679</v>
       </c>
       <c r="G19" s="11"/>
       <c r="I19" s="11"/>
       <c r="K19" s="31" t="s">
+        <v>596</v>
+      </c>
+      <c r="L19" s="11" t="s">
         <v>597</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.35">
@@ -5382,13 +5383,13 @@
         <v>101</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>102</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G20" s="11"/>
       <c r="I20" s="11"/>
@@ -5397,15 +5398,15 @@
         <v>104</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="50" t="s">
-        <v>654</v>
+      <c r="C21" s="45" t="s">
+        <v>653</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>106</v>
@@ -5417,7 +5418,7 @@
         <v>111</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.35">
@@ -5425,7 +5426,7 @@
         <v>105</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E22" s="31"/>
       <c r="K22" s="10" t="s">
@@ -5442,7 +5443,7 @@
         <v>108</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>112</v>
@@ -5485,7 +5486,7 @@
         <v>505</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
@@ -5496,7 +5497,7 @@
         <v>1235</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
@@ -5507,7 +5508,7 @@
         <v>1356</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
@@ -5518,7 +5519,7 @@
         <v>1726</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
@@ -5529,7 +5530,7 @@
         <v>933</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
@@ -5540,7 +5541,7 @@
         <v>1517</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
@@ -5554,7 +5555,7 @@
         <v>2130</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
@@ -5565,7 +5566,7 @@
         <v>2163</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
@@ -5576,7 +5577,7 @@
         <v>1768</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
@@ -5587,7 +5588,7 @@
         <v>1941</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
@@ -5598,7 +5599,7 @@
         <v>3683</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
@@ -5612,7 +5613,7 @@
         <v>1170</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
@@ -5623,7 +5624,7 @@
         <v>1723</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
@@ -5634,7 +5635,7 @@
         <v>1570</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
@@ -5645,7 +5646,7 @@
         <v>1893</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
@@ -5656,7 +5657,7 @@
         <v>1700</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
@@ -5670,7 +5671,7 @@
         <v>1356</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
@@ -5681,7 +5682,7 @@
         <v>1800</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
@@ -5692,7 +5693,7 @@
         <v>1337</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
@@ -5703,7 +5704,7 @@
         <v>293</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
@@ -5714,7 +5715,7 @@
         <v>293</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
@@ -5725,7 +5726,7 @@
         <v>293</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
@@ -5736,62 +5737,62 @@
         <v>293</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C30" s="11">
         <v>270</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>523</v>
-      </c>
-      <c r="E30" s="45" t="s">
-        <v>491</v>
-      </c>
-      <c r="F30" s="45"/>
+        <v>522</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>490</v>
+      </c>
+      <c r="F30" s="46"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C31" s="11">
         <v>400</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>524</v>
-      </c>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
+        <v>523</v>
+      </c>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="20" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C32" s="11">
         <v>550</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>526</v>
-      </c>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
+        <v>525</v>
+      </c>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C33" s="11">
         <v>610</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>525</v>
-      </c>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
+        <v>524</v>
+      </c>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5806,8 +5807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AP28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AP17" sqref="AP17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -5918,61 +5919,61 @@
         <v>151</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>152</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>153</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>154</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>155</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>156</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="T2" s="10" t="s">
         <v>157</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AI2" s="10" t="s">
         <v>148</v>
       </c>
       <c r="AJ2" s="11" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AL2" s="13" t="s">
         <v>158</v>
       </c>
       <c r="AM2" s="11" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AO2" s="13" t="s">
         <v>159</v>
       </c>
       <c r="AP2" s="11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="3" spans="2:42" x14ac:dyDescent="0.35">
@@ -5980,79 +5981,79 @@
         <v>160</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>161</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>162</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>163</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>164</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="Q3" s="31" t="s">
+        <v>556</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="T3" s="31" t="s">
         <v>557</v>
       </c>
-      <c r="R3" s="11" t="s">
-        <v>556</v>
-      </c>
-      <c r="T3" s="31" t="s">
-        <v>558</v>
-      </c>
       <c r="U3" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="W3" s="10" t="s">
         <v>165</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AC3" s="13" t="s">
         <v>166</v>
       </c>
       <c r="AD3" s="11" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF3" s="13" t="s">
         <v>167</v>
       </c>
       <c r="AG3" s="11" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AI3" s="10" t="s">
         <v>168</v>
       </c>
       <c r="AJ3" s="11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AL3" s="13" t="s">
         <v>169</v>
       </c>
       <c r="AM3" s="11" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AO3" s="10" t="s">
         <v>170</v>
       </c>
       <c r="AP3" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="4" spans="2:42" x14ac:dyDescent="0.35">
@@ -6060,67 +6061,67 @@
         <v>171</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>172</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>173</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>174</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>175</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="W4" s="10" t="s">
         <v>176</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AC4" s="13" t="s">
         <v>177</v>
       </c>
       <c r="AD4" s="11" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AF4" s="13" t="s">
         <v>178</v>
       </c>
       <c r="AG4" s="11" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AI4" s="10" t="s">
         <v>179</v>
       </c>
       <c r="AJ4" s="11" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AL4" s="13" t="s">
         <v>180</v>
       </c>
       <c r="AM4" s="11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AO4" s="10" t="s">
         <v>181</v>
       </c>
       <c r="AP4" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="2:42" x14ac:dyDescent="0.35">
@@ -6128,13 +6129,13 @@
         <v>182</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>183</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>184</v>
@@ -6146,61 +6147,61 @@
         <v>186</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>187</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="Q5" s="10" t="s">
         <v>188</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="T5" s="10" t="s">
         <v>189</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="W5" s="10" t="s">
         <v>190</v>
       </c>
       <c r="X5" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AC5" s="13" t="s">
         <v>191</v>
       </c>
       <c r="AD5" s="11" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AF5" s="13" t="s">
         <v>192</v>
       </c>
       <c r="AG5" s="11" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AI5" s="10" t="s">
         <v>193</v>
       </c>
       <c r="AJ5" s="11" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AL5" s="20" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AM5" s="11" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AO5" s="10" t="s">
         <v>194</v>
       </c>
       <c r="AP5" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="6" spans="2:42" x14ac:dyDescent="0.35">
@@ -6208,37 +6209,37 @@
         <v>195</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>197</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>198</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AI6" s="10" t="s">
         <v>199</v>
       </c>
       <c r="AJ6" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AL6" s="16" t="s">
         <v>200</v>
       </c>
       <c r="AM6" s="11" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="7" spans="2:42" x14ac:dyDescent="0.35">
@@ -6247,13 +6248,13 @@
         <v>201</v>
       </c>
       <c r="AJ7" s="11" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AL7" s="13" t="s">
         <v>202</v>
       </c>
       <c r="AM7" s="11" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AO7" s="15" t="s">
         <v>203</v>
@@ -6264,49 +6265,49 @@
         <v>204</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>205</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>206</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>207</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="N8" s="10" t="s">
         <v>208</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>209</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="T8" s="31" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="W8" s="10" t="s">
         <v>210</v>
       </c>
       <c r="X8" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Z8" s="10" t="s">
         <v>211</v>
@@ -6318,31 +6319,31 @@
         <v>213</v>
       </c>
       <c r="AD8" s="11" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AF8" s="13" t="s">
         <v>214</v>
       </c>
       <c r="AG8" s="11" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AI8" s="10" t="s">
         <v>215</v>
       </c>
       <c r="AJ8" s="11" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AL8" s="13" t="s">
         <v>216</v>
       </c>
       <c r="AM8" s="11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AO8" s="10" t="s">
         <v>217</v>
       </c>
       <c r="AP8" s="11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="9" spans="2:42" x14ac:dyDescent="0.35">
@@ -6350,43 +6351,43 @@
         <v>218</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>219</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>220</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>221</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="N9" s="10" t="s">
         <v>222</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AI9" s="10" t="s">
         <v>223</v>
       </c>
       <c r="AJ9" s="11" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AO9" s="10" t="s">
         <v>224</v>
       </c>
       <c r="AP9" s="11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="10" spans="2:42" x14ac:dyDescent="0.35">
@@ -6394,31 +6395,31 @@
         <v>225</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>226</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>227</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>228</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AI10" s="10" t="s">
         <v>229</v>
       </c>
       <c r="AJ10" s="11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AL10" s="15" t="s">
         <v>243</v>
@@ -6427,7 +6428,7 @@
         <v>230</v>
       </c>
       <c r="AP10" s="11" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="11" spans="2:42" x14ac:dyDescent="0.35">
@@ -6435,25 +6436,25 @@
         <v>231</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>232</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>233</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>234</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AL11" s="10" t="s">
         <v>247</v>
@@ -6465,7 +6466,7 @@
         <v>235</v>
       </c>
       <c r="AP11" s="11" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="12" spans="2:42" x14ac:dyDescent="0.35">
@@ -6473,49 +6474,49 @@
         <v>236</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>237</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>238</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="Q12" s="10" t="s">
         <v>239</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="T12" s="31" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W12" s="10" t="s">
         <v>240</v>
       </c>
       <c r="X12" s="11" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AC12" s="13" t="s">
         <v>241</v>
       </c>
       <c r="AD12" s="11" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AF12" s="13" t="s">
         <v>242</v>
       </c>
       <c r="AG12" s="11" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI12" s="14" t="s">
         <v>251</v>
@@ -6533,27 +6534,27 @@
         <v>244</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>245</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K13" s="21" t="s">
         <v>246</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="N13" s="21"/>
       <c r="T13" s="21"/>
       <c r="AI13" s="31" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AJ13" s="11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AL13" s="10" t="s">
         <v>264</v>
@@ -6570,13 +6571,13 @@
         <v>250</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AI14" s="31" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AJ14" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AL14" s="10" t="s">
         <v>276</v>
@@ -6596,67 +6597,67 @@
         <v>256</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>257</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>258</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="N15" s="10" t="s">
         <v>259</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="Q15" s="10" t="s">
         <v>260</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="W15" s="10" t="s">
         <v>261</v>
       </c>
       <c r="X15" s="11" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AC15" s="13" t="s">
         <v>262</v>
       </c>
       <c r="AD15" s="11" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AF15" s="13" t="s">
         <v>263</v>
       </c>
       <c r="AG15" s="11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AI15" s="31" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AJ15" s="11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="AL15" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="AM15" s="11" t="s">
         <v>289</v>
-      </c>
-      <c r="AM15" s="11" t="s">
-        <v>290</v>
       </c>
       <c r="AO15" s="10" t="s">
         <v>266</v>
       </c>
       <c r="AP15" s="11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="16" spans="2:42" x14ac:dyDescent="0.35">
@@ -6664,31 +6665,31 @@
         <v>267</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>268</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="N16" s="10" t="s">
         <v>269</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>270</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="W16" s="10" t="s">
         <v>271</v>
       </c>
       <c r="X16" s="11" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="Z16" s="10" t="s">
         <v>272</v>
@@ -6700,459 +6701,459 @@
         <v>274</v>
       </c>
       <c r="AD16" s="11" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AF16" s="13" t="s">
         <v>275</v>
       </c>
       <c r="AG16" s="11" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AL16" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="AM16" s="11" t="s">
         <v>298</v>
-      </c>
-      <c r="AM16" s="11" t="s">
-        <v>299</v>
       </c>
       <c r="AO16" s="10" t="s">
         <v>278</v>
       </c>
       <c r="AP16" s="11" t="s">
-        <v>279</v>
+        <v>844</v>
       </c>
     </row>
     <row r="17" spans="5:42" x14ac:dyDescent="0.35">
       <c r="H17" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="K17" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="I17" s="11" t="s">
-        <v>729</v>
-      </c>
-      <c r="K17" s="10" t="s">
+      <c r="L17" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="N17" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="L17" s="11" t="s">
-        <v>754</v>
-      </c>
-      <c r="N17" s="10" t="s">
+      <c r="O17" s="11" t="s">
+        <v>771</v>
+      </c>
+      <c r="Q17" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="O17" s="11" t="s">
-        <v>772</v>
-      </c>
-      <c r="Q17" s="10" t="s">
+      <c r="R17" s="11" t="s">
+        <v>792</v>
+      </c>
+      <c r="W17" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="R17" s="11" t="s">
-        <v>793</v>
-      </c>
-      <c r="W17" s="10" t="s">
+      <c r="X17" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="Z17" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="X17" s="11" t="s">
-        <v>694</v>
-      </c>
-      <c r="Z17" s="10" t="s">
+      <c r="AA17" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="AA17" s="11" t="s">
+      <c r="AC17" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="AC17" s="13" t="s">
+      <c r="AD17" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="AF17" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="AD17" s="11" t="s">
-        <v>717</v>
-      </c>
-      <c r="AF17" s="13" t="s">
-        <v>288</v>
-      </c>
       <c r="AG17" s="11" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AI17" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AO17" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="AP17" s="11" t="s">
         <v>291</v>
-      </c>
-      <c r="AP17" s="11" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="18" spans="5:42" x14ac:dyDescent="0.35">
       <c r="H18" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="K18" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="I18" s="11" t="s">
-        <v>730</v>
-      </c>
-      <c r="K18" s="10" t="s">
+      <c r="L18" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="N18" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="L18" s="11" t="s">
-        <v>755</v>
-      </c>
-      <c r="N18" s="10" t="s">
+      <c r="O18" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="Q18" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="O18" s="11" t="s">
-        <v>773</v>
-      </c>
-      <c r="Q18" s="10" t="s">
+      <c r="R18" s="11" t="s">
+        <v>793</v>
+      </c>
+      <c r="W18" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="R18" s="11" t="s">
-        <v>794</v>
-      </c>
-      <c r="W18" s="10" t="s">
-        <v>297</v>
-      </c>
       <c r="X18" s="11" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AA18" s="11"/>
       <c r="AC18" s="31" t="s">
+        <v>558</v>
+      </c>
+      <c r="AD18" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="AD18" s="11" t="s">
+      <c r="AF18" s="31" t="s">
         <v>560</v>
       </c>
-      <c r="AF18" s="31" t="s">
+      <c r="AG18" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="AG18" s="11" t="s">
-        <v>562</v>
-      </c>
       <c r="AI18" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AJ18" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AL18" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AM18" s="11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="AO18" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="AP18" s="11" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="19" spans="5:42" x14ac:dyDescent="0.35">
+      <c r="E19" s="47" t="s">
+        <v>443</v>
+      </c>
+      <c r="F19" s="47"/>
+      <c r="H19" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="AP18" s="11" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="19" spans="5:42" x14ac:dyDescent="0.35">
-      <c r="E19" s="46" t="s">
-        <v>444</v>
-      </c>
-      <c r="F19" s="46"/>
-      <c r="H19" s="10" t="s">
+      <c r="I19" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="K19" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="I19" s="11" t="s">
-        <v>731</v>
-      </c>
-      <c r="K19" s="21" t="s">
+      <c r="L19" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="N19" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="L19" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="N19" s="21" t="s">
+      <c r="O19" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="Q19" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="O19" s="11" t="s">
-        <v>774</v>
-      </c>
-      <c r="Q19" s="21" t="s">
+      <c r="R19" s="11" t="s">
+        <v>794</v>
+      </c>
+      <c r="W19" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="R19" s="11" t="s">
-        <v>795</v>
-      </c>
-      <c r="W19" s="21" t="s">
-        <v>305</v>
-      </c>
       <c r="X19" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AA19" s="11"/>
       <c r="AC19" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD19" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="AF19" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="AD19" s="11" t="s">
-        <v>718</v>
-      </c>
-      <c r="AF19" s="22" t="s">
+      <c r="AG19" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="AI19" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="AJ19" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="AL19" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="AM19" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="AO19" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="AG19" s="11" t="s">
-        <v>707</v>
-      </c>
-      <c r="AI19" s="20" t="s">
-        <v>543</v>
-      </c>
-      <c r="AJ19" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="AL19" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="AM19" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="AO19" s="10" t="s">
-        <v>308</v>
-      </c>
       <c r="AP19" s="11" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="20" spans="5:42" x14ac:dyDescent="0.35">
       <c r="H20" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="K20" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="I20" s="11" t="s">
-        <v>605</v>
-      </c>
-      <c r="K20" s="10" t="s">
+      <c r="L20" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="N20" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="L20" s="11" t="s">
-        <v>757</v>
-      </c>
-      <c r="N20" s="10" t="s">
-        <v>311</v>
-      </c>
       <c r="O20" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AI20" s="20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AJ20" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AL20" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AM20" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AO20" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AP20" s="11" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="21" spans="5:42" x14ac:dyDescent="0.35">
       <c r="H21" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="K21" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="L21" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="O21" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="K21" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>758</v>
-      </c>
-      <c r="N21" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="O21" s="11" t="s">
-        <v>600</v>
-      </c>
       <c r="AL21" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AM21" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AO21" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="AP21" s="11" t="s">
         <v>318</v>
-      </c>
-      <c r="AP21" s="11" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="22" spans="5:42" x14ac:dyDescent="0.35">
       <c r="AL22" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AM22" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AO22" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="AP22" s="11" t="s">
         <v>321</v>
-      </c>
-      <c r="AP22" s="11" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="23" spans="5:42" x14ac:dyDescent="0.35">
       <c r="H23" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AL23" s="21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AM23" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="24" spans="5:42" x14ac:dyDescent="0.35">
       <c r="H24" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="K24" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="I24" s="11" t="s">
-        <v>733</v>
-      </c>
-      <c r="K24" s="10" t="s">
+      <c r="L24" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="N24" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="L24" s="11" t="s">
-        <v>759</v>
-      </c>
-      <c r="N24" s="10" t="s">
-        <v>328</v>
-      </c>
       <c r="O24" s="11" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="26" spans="5:42" x14ac:dyDescent="0.35">
       <c r="H26" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="K26" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="I26" s="11" t="s">
-        <v>734</v>
-      </c>
-      <c r="K26" s="10" t="s">
+      <c r="L26" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="N26" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="L26" s="11" t="s">
-        <v>760</v>
-      </c>
-      <c r="N26" s="10" t="s">
+      <c r="O26" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="Q26" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="O26" s="11" t="s">
-        <v>777</v>
-      </c>
-      <c r="Q26" s="10" t="s">
+      <c r="R26" s="11" t="s">
+        <v>795</v>
+      </c>
+      <c r="T26" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="R26" s="11" t="s">
-        <v>796</v>
-      </c>
-      <c r="T26" s="10" t="s">
-        <v>337</v>
-      </c>
       <c r="U26" s="11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="27" spans="5:42" x14ac:dyDescent="0.35">
       <c r="H27" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="K27" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="I27" s="11" t="s">
-        <v>735</v>
-      </c>
-      <c r="K27" s="10" t="s">
+      <c r="L27" s="11" t="s">
+        <v>760</v>
+      </c>
+      <c r="N27" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="L27" s="11" t="s">
-        <v>761</v>
-      </c>
-      <c r="N27" s="10" t="s">
+      <c r="O27" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="Q27" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="O27" s="11" t="s">
-        <v>778</v>
-      </c>
-      <c r="Q27" s="10" t="s">
+      <c r="R27" s="11" t="s">
+        <v>796</v>
+      </c>
+      <c r="T27" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="R27" s="11" t="s">
-        <v>797</v>
-      </c>
-      <c r="T27" s="10" t="s">
+      <c r="U27" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="W27" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="U27" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="W27" s="10" t="s">
-        <v>344</v>
-      </c>
       <c r="X27" s="11" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AA27" s="11"/>
       <c r="AC27" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="AD27" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="AF27" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="AD27" s="11" t="s">
-        <v>719</v>
-      </c>
-      <c r="AF27" s="13" t="s">
-        <v>346</v>
-      </c>
       <c r="AG27" s="11" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="28" spans="5:42" x14ac:dyDescent="0.35">
       <c r="H28" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="N28" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="I28" s="11" t="s">
-        <v>736</v>
-      </c>
-      <c r="N28" s="10" t="s">
+      <c r="O28" s="11" t="s">
+        <v>778</v>
+      </c>
+      <c r="Q28" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="O28" s="11" t="s">
-        <v>779</v>
-      </c>
-      <c r="Q28" s="10" t="s">
+      <c r="R28" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="T28" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="R28" s="11" t="s">
-        <v>798</v>
-      </c>
-      <c r="T28" s="10" t="s">
+      <c r="U28" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="W28" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="U28" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="W28" s="10" t="s">
+      <c r="X28" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="AC28" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="X28" s="11" t="s">
-        <v>698</v>
-      </c>
-      <c r="AC28" s="13" t="s">
+      <c r="AD28" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="AF28" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="AD28" s="11" t="s">
-        <v>720</v>
-      </c>
-      <c r="AF28" s="13" t="s">
-        <v>353</v>
-      </c>
       <c r="AG28" s="11" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
   </sheetData>
@@ -7170,7 +7171,7 @@
   <dimension ref="B1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C14"/>
+      <selection activeCell="C7" sqref="C7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.6" x14ac:dyDescent="0.35"/>
@@ -7191,331 +7192,331 @@
   <sheetData>
     <row r="1" spans="2:12" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>150</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B2" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>362</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="D2" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="G2" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>368</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B3" s="38" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="E3" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="G3" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>368</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B4" s="38" t="s">
+        <v>571</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>572</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>573</v>
-      </c>
       <c r="D4" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="E4" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="G4" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>369</v>
-      </c>
       <c r="L4" s="24" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="56.6" x14ac:dyDescent="0.35">
       <c r="B6" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="C6" s="37" t="s">
         <v>370</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="D6" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="40" t="s">
+        <v>661</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>574</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>372</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>662</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>575</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>373</v>
       </c>
       <c r="H6" s="6">
         <v>64</v>
       </c>
       <c r="I6" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>368</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C7" s="35" t="s">
         <v>374</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>375</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H7" s="6">
         <v>64</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C8" s="35" t="s">
         <v>376</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="D8" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>377</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>602</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>378</v>
       </c>
       <c r="H8" s="6">
         <v>128</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C9" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>381</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E9" s="24" t="s">
+        <v>594</v>
+      </c>
+      <c r="F9" s="24" t="s">
         <v>595</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>596</v>
       </c>
       <c r="H9" s="6">
         <v>64</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C10" s="35" t="s">
         <v>382</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="D10" s="24" t="s">
+        <v>841</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>383</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>842</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>384</v>
       </c>
       <c r="H10" s="6">
         <v>512</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="99" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C11" s="35" t="s">
         <v>385</v>
       </c>
-      <c r="C11" s="35" t="s">
-        <v>386</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H11" s="6">
         <v>64</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="42.45" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C13" s="35" t="s">
         <v>387</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="D13" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>390</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>391</v>
       </c>
       <c r="H13" s="6">
         <v>64</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C14" s="35" t="s">
         <v>392</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="D14" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="24" t="s">
+        <v>600</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>601</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>395</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>396</v>
       </c>
       <c r="H14" s="6">
         <v>128</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
@@ -7534,8 +7535,8 @@
   <dimension ref="B1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.6" x14ac:dyDescent="0.35"/>
@@ -7557,333 +7558,333 @@
   <sheetData>
     <row r="1" spans="2:12" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>150</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="56.6" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>834</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>443</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>835</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="42.45" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="H3" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>815</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>446</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>815</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="56.6" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="56.6" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>414</v>
-      </c>
       <c r="E7" s="19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F7" s="18" t="s">
+        <v>842</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>843</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>844</v>
       </c>
       <c r="H7" s="2">
         <v>512</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="113.15" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>416</v>
-      </c>
       <c r="D8" s="18" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H8" s="2">
         <v>256</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="56.6" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>419</v>
-      </c>
       <c r="E9" s="19" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H9" s="2">
         <v>512</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="H10" s="2">
         <v>256</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="155.6" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
+        <v>821</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>823</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H11" s="2">
         <v>512</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="99" x14ac:dyDescent="0.35">
       <c r="B12" s="18" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H12" s="2">
         <v>512</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="70.75" x14ac:dyDescent="0.35">
       <c r="B13" s="18" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="7"/>
@@ -7891,154 +7892,154 @@
         <v>128</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="29.15" x14ac:dyDescent="0.35">
       <c r="B14" s="18" t="s">
+        <v>823</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>825</v>
-      </c>
       <c r="D14" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F14" s="18" t="s">
+        <v>839</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>840</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>841</v>
       </c>
       <c r="H14" s="2">
         <v>512</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>426</v>
-      </c>
       <c r="D15" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H15" s="2">
         <v>512</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="29.15" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>428</v>
-      </c>
       <c r="D16" s="18" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H16" s="2">
         <v>2048</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="141.44999999999999" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M18" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="N18" s="18" t="s">
         <v>565</v>
-      </c>
-      <c r="N18" s="18" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="127.3" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L19" s="18" t="s">
+        <v>563</v>
+      </c>
+      <c r="M19" s="18" t="s">
         <v>564</v>
-      </c>
-      <c r="M19" s="18" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="198" x14ac:dyDescent="0.35">
       <c r="B20" s="18" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.35">
@@ -8072,18 +8073,18 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B1" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D2" s="26">
         <v>0.03</v>
@@ -8091,10 +8092,10 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" s="25" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D3" s="26">
         <v>1</v>
@@ -8102,10 +8103,10 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D4" s="26">
         <v>1</v>
@@ -8113,10 +8114,10 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D5" s="26">
         <v>5</v>
@@ -8124,10 +8125,10 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="25" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D6" s="26">
         <v>1</v>
@@ -8135,24 +8136,24 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="25" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D7" s="26">
         <v>1</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="25" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D8" s="26">
         <v>1</v>
@@ -8160,21 +8161,21 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" s="25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" s="25" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -8202,88 +8203,88 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
-        <v>480</v>
+      <c r="A2" s="48" t="s">
+        <v>479</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D2" s="24" t="s">
+        <v>480</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>481</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>482</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A3" s="48"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="6">
         <v>2</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D3" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>483</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>484</v>
-      </c>
     </row>
     <row r="4" spans="1:6" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="48"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="6">
         <v>3</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A5" s="48"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A6" s="48"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
       <c r="C6" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>475</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="E6" s="24" t="s">
         <v>476</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="F6" s="24" t="s">
         <v>477</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>478</v>
-      </c>
     </row>
     <row r="7" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A7" s="48"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -8293,22 +8294,22 @@
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="99" x14ac:dyDescent="0.35">
-      <c r="A10" s="49" t="s">
-        <v>489</v>
+      <c r="A10" s="50" t="s">
+        <v>488</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A11" s="49"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -8336,13 +8337,13 @@
         <v>46</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D2" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="E2" s="35" t="s">
         <v>362</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
@@ -8350,13 +8351,13 @@
         <v>53</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
@@ -8364,13 +8365,13 @@
         <v>72</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D4" s="38" t="s">
+        <v>571</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>572</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.6" x14ac:dyDescent="0.35">
@@ -8378,13 +8379,13 @@
         <v>76</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D5" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="E5" s="37" t="s">
         <v>370</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.6" x14ac:dyDescent="0.35">
@@ -8392,13 +8393,13 @@
         <v>78</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="E6" s="35" t="s">
         <v>374</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
@@ -8406,13 +8407,13 @@
         <v>83</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="E7" s="35" t="s">
         <v>376</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
@@ -8423,10 +8424,10 @@
         <v>92</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E8" s="35" t="s">
         <v>380</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
@@ -8437,10 +8438,10 @@
         <v>98</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E9" s="35" t="s">
         <v>382</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.6" x14ac:dyDescent="0.35">
@@ -8451,10 +8452,10 @@
         <v>33</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E10" s="35" t="s">
         <v>385</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
@@ -8465,10 +8466,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="E11" s="35" t="s">
         <v>387</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
@@ -8479,10 +8480,10 @@
         <v>68</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="E12" s="35" t="s">
         <v>392</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>393</v>
       </c>
     </row>
   </sheetData>

--- a/参考/参考/资料/1.18版本策划.xlsx
+++ b/参考/参考/资料/1.18版本策划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hqyzsy\IdeaProjects\micro_machinery\参考\参考\资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D7D0CA-B4A8-49B8-8382-B5A7DA135651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE381CC-E31D-44D1-8B24-0C906EF1BA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增方块" sheetId="1" r:id="rId1"/>
@@ -836,7 +836,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="846">
   <si>
     <t>矿石</t>
   </si>
@@ -4078,6 +4078,10 @@
   </si>
   <si>
     <t>iron_hammer</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>electrolysis</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4300,7 +4304,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4319,6 +4323,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4332,7 +4342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4479,6 +4489,15 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5807,8 +5826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AP28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AP17" sqref="AP17"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AD24" sqref="AD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -7170,8 +7189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.6" x14ac:dyDescent="0.35"/>
@@ -7221,7 +7240,7 @@
       </c>
     </row>
     <row r="2" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="51" t="s">
         <v>361</v>
       </c>
       <c r="C2" s="35" t="s">
@@ -7247,7 +7266,7 @@
       </c>
     </row>
     <row r="3" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="52" t="s">
         <v>570</v>
       </c>
       <c r="C3" s="35" t="s">
@@ -7273,7 +7292,7 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="52" t="s">
         <v>571</v>
       </c>
       <c r="C4" s="35" t="s">
@@ -7331,7 +7350,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="53" t="s">
         <v>373</v>
       </c>
       <c r="C7" s="35" t="s">
@@ -7358,11 +7377,11 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="53" t="s">
         <v>375</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>376</v>
+        <v>845</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>601</v>
@@ -7436,14 +7455,14 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="99" x14ac:dyDescent="0.35">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="53" t="s">
         <v>384</v>
       </c>
       <c r="C11" s="35" t="s">
         <v>385</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>371</v>
+      <c r="D11" s="24" t="s">
+        <v>601</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>658</v>
@@ -7526,6 +7545,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/参考/参考/资料/1.18版本策划.xlsx
+++ b/参考/参考/资料/1.18版本策划.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hqyzsy\IdeaProjects\micro_machinery\参考\参考\资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE381CC-E31D-44D1-8B24-0C906EF1BA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5DB5D6-27CE-4C69-8685-B8DA1CCAE28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增方块" sheetId="1" r:id="rId1"/>
@@ -836,7 +836,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="856">
   <si>
     <t>矿石</t>
   </si>
@@ -889,15 +889,9 @@
     <t>molten_silver_discarded</t>
   </si>
   <si>
-    <t>进阶机械方块</t>
-  </si>
-  <si>
     <t>casing_2</t>
   </si>
   <si>
-    <t>进阶传送带</t>
-  </si>
-  <si>
     <t>银矿</t>
   </si>
   <si>
@@ -910,15 +904,9 @@
     <t>molten_nickel_discarded</t>
   </si>
   <si>
-    <t>高级机械方块</t>
-  </si>
-  <si>
     <t>casing_3</t>
   </si>
   <si>
-    <t>高级传送带</t>
-  </si>
-  <si>
     <t>铝块</t>
   </si>
   <si>
@@ -928,9 +916,6 @@
     <t>molten_aluminum_discarded</t>
   </si>
   <si>
-    <t>尖端机械方块</t>
-  </si>
-  <si>
     <t>casing_4</t>
   </si>
   <si>
@@ -1000,9 +985,6 @@
     <t>散热模块</t>
   </si>
   <si>
-    <t>进阶流体管道</t>
-  </si>
-  <si>
     <t>pipe_2</t>
   </si>
   <si>
@@ -1021,9 +1003,6 @@
     <t>承压模块</t>
   </si>
   <si>
-    <t>高级流体管道</t>
-  </si>
-  <si>
     <t>pipe_3</t>
   </si>
   <si>
@@ -1294,9 +1273,6 @@
     <t>粗锡</t>
   </si>
   <si>
-    <t>锡精矿</t>
-  </si>
-  <si>
     <t>锡粉</t>
   </si>
   <si>
@@ -1709,9 +1685,6 @@
   </si>
   <si>
     <t>超级锤</t>
-  </si>
-  <si>
-    <t>superhammer</t>
   </si>
   <si>
     <t>高速钢粉</t>
@@ -2775,18 +2748,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>进阶导线</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级导线</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>尖端导线</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>基础马达</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -4082,6 +4043,94 @@
   </si>
   <si>
     <t>electrolysis</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动发电机</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hand_generator</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*1*1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动摇杆</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>本体和摇杆</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作时摇杆旋转</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>锡精矿</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>super_hammer</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>热铁锭</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>热钢锭</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot_iron_ingot</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot_steel_ingot</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>先进机械方块</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英机械方块</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极机械方块</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>先进流体管道</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英流体管道</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>先进传送带</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英传送带</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>先进导线</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英导线</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极导线</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4475,6 +4524,15 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4489,15 +4547,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4776,8 +4825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -4814,13 +4863,13 @@
         <v>1</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="L1" s="39" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>3</v>
@@ -4840,14 +4889,14 @@
         <v>7</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="31" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>8</v>
@@ -4856,10 +4905,10 @@
         <v>9</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="Q2" s="17" t="s">
         <v>10</v>
@@ -4873,7 +4922,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>13</v>
@@ -4883,10 +4932,10 @@
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="31" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>15</v>
@@ -4894,581 +4943,581 @@
       <c r="L3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="31" t="s">
+        <v>846</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>19</v>
+      <c r="Q3" s="31" t="s">
+        <v>851</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="31" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="K4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="31" t="s">
+        <v>847</v>
+      </c>
+      <c r="O4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>26</v>
+      <c r="Q4" s="31" t="s">
+        <v>852</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B5" s="31" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="31" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="K5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>848</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B6" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="31" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O6" s="11"/>
       <c r="Q6" s="17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="I7" s="11"/>
       <c r="N7" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>657</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>669</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="31" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="31" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>684</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>54</v>
+        <v>672</v>
+      </c>
+      <c r="Q9" s="31" t="s">
+        <v>849</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B10" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="31" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>685</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>61</v>
+        <v>673</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>850</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B11" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="31" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="N11" s="16"/>
       <c r="O11" s="11"/>
       <c r="Q11" s="17" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.35">
       <c r="E12" s="10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="G12" s="11"/>
       <c r="I12" s="11"/>
       <c r="K12" s="10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B13" s="31" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="G13" s="11"/>
       <c r="I13" s="11"/>
       <c r="K13" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="Q13" s="31" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B14" s="10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="Q14" s="31" t="s">
-        <v>535</v>
+        <v>853</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="G15" s="11"/>
       <c r="I15" s="11"/>
       <c r="K15" s="10" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="Q15" s="31" t="s">
-        <v>536</v>
+        <v>854</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B16" s="17" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="G16" s="11"/>
       <c r="I16" s="11"/>
       <c r="K16" s="10" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="31" t="s">
-        <v>537</v>
+        <v>855</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="E17" s="10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="G17" s="11"/>
       <c r="I17" s="11"/>
       <c r="K17" s="10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="R17" s="11"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" s="10" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="G18" s="11"/>
       <c r="I18" s="11"/>
       <c r="K18" s="10" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" s="10" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="G19" s="11"/>
       <c r="I19" s="11"/>
       <c r="K19" s="31" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" s="10" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="G20" s="11"/>
       <c r="I20" s="11"/>
       <c r="L20" s="11"/>
       <c r="N20" s="13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" s="10" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" s="10" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="E22" s="31"/>
       <c r="K22" s="10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="N22" s="13"/>
       <c r="O22" s="11"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B23" s="10" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.35">
@@ -5486,8 +5535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -5499,68 +5548,68 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" s="44" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C2" s="42">
         <v>505</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="44" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C3" s="42">
         <v>1235</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="44" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C4" s="42">
         <v>1356</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="44" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C5" s="42">
         <v>1726</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="44" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C6" s="42">
         <v>933</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="44" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C7" s="42">
         <v>1517</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
@@ -5568,57 +5617,57 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="44" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C9" s="42">
         <v>2130</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="44" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C10" s="42">
         <v>2163</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="44" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C11" s="42">
         <v>1768</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="44" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C12" s="42">
         <v>1941</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="44" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C13" s="42">
         <v>3683</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
@@ -5626,57 +5675,57 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="44" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C15" s="42">
         <v>1170</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="44" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C16" s="42">
         <v>1723</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="44" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C17" s="42">
         <v>1570</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="44" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C18" s="42">
         <v>1893</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="44" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C19" s="42">
         <v>1700</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
@@ -5684,134 +5733,134 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="44" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C21" s="42">
         <v>1356</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="44" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C22" s="42">
         <v>1800</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="41" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C23" s="42">
         <v>1337</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="13" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C25" s="11">
         <v>293</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="13" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C26" s="11">
         <v>293</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="13" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C27" s="11">
         <v>293</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="13" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C28" s="11">
         <v>293</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="20" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C30" s="11">
         <v>270</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="E30" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="F30" s="46"/>
+        <v>513</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="F30" s="49"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="20" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="C31" s="11">
         <v>400</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>523</v>
-      </c>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
+        <v>514</v>
+      </c>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="20" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="C32" s="11">
         <v>550</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>525</v>
-      </c>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
+        <v>516</v>
+      </c>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="20" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C33" s="11">
         <v>610</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>524</v>
-      </c>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
+        <v>515</v>
+      </c>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5826,8 +5875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AP28"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AD24" sqref="AD24"/>
+    <sheetView topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -5880,1299 +5929,1311 @@
   <sheetData>
     <row r="1" spans="2:42" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="9" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I1" s="12"/>
       <c r="K1" s="9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L1" s="12"/>
       <c r="N1" s="9" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="O1" s="11"/>
       <c r="Q1" s="9" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R1" s="11"/>
       <c r="T1" s="9" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="U1" s="11"/>
       <c r="W1" s="9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="X1" s="12"/>
       <c r="Z1" s="9" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AC1" s="9" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AD1" s="11"/>
       <c r="AF1" s="9" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="AG1" s="12"/>
       <c r="AI1" s="9" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="AJ1" s="12"/>
       <c r="AL1" s="9" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="AM1" s="12"/>
       <c r="AO1" s="9" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="AP1" s="12"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>840</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="AL2" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>786</v>
+      </c>
+      <c r="AO2" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>641</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>619</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>720</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>740</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>762</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>786</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="AI2" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="AJ2" s="11" t="s">
-        <v>779</v>
-      </c>
-      <c r="AL2" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="AM2" s="11" t="s">
-        <v>798</v>
-      </c>
-      <c r="AO2" s="13" t="s">
-        <v>159</v>
-      </c>
       <c r="AP2" s="11" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
     </row>
     <row r="3" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q3" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="T3" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="AC3" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="AF3" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG3" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="AI3" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>640</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="AJ3" s="11" t="s">
+        <v>768</v>
+      </c>
+      <c r="AL3" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>618</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="AM3" s="11" t="s">
+        <v>787</v>
+      </c>
+      <c r="AO3" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>721</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>763</v>
-      </c>
-      <c r="Q3" s="31" t="s">
-        <v>556</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="T3" s="31" t="s">
-        <v>557</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>686</v>
-      </c>
-      <c r="AC3" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD3" s="11" t="s">
-        <v>709</v>
-      </c>
-      <c r="AF3" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG3" s="11" t="s">
-        <v>698</v>
-      </c>
-      <c r="AI3" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="AJ3" s="11" t="s">
-        <v>780</v>
-      </c>
-      <c r="AL3" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="AM3" s="11" t="s">
-        <v>799</v>
-      </c>
-      <c r="AO3" s="10" t="s">
-        <v>170</v>
-      </c>
       <c r="AP3" s="11" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
     </row>
     <row r="4" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="AC4" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="AF4" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG4" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="AI4" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>638</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="AJ4" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="AL4" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>761</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="AM4" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="AO4" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>722</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>742</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>764</v>
-      </c>
-      <c r="W4" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="X4" s="11" t="s">
-        <v>687</v>
-      </c>
-      <c r="AC4" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD4" s="11" t="s">
-        <v>710</v>
-      </c>
-      <c r="AF4" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="AG4" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="AI4" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="AJ4" s="11" t="s">
-        <v>781</v>
-      </c>
-      <c r="AL4" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="AM4" s="11" t="s">
-        <v>567</v>
-      </c>
-      <c r="AO4" s="10" t="s">
-        <v>181</v>
-      </c>
       <c r="AP4" s="11" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="W5" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>634</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="X5" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="AC5" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>617</v>
-      </c>
-      <c r="H5" s="10" t="s">
+      <c r="AD5" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="AF5" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="AG5" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="AI5" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="AJ5" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="AL5" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="AM5" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="AO5" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="L5" s="11" t="s">
-        <v>743</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>765</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>787</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="W5" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="X5" s="11" t="s">
-        <v>688</v>
-      </c>
-      <c r="AC5" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD5" s="11" t="s">
-        <v>711</v>
-      </c>
-      <c r="AF5" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG5" s="11" t="s">
-        <v>700</v>
-      </c>
-      <c r="AI5" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="AJ5" s="11" t="s">
-        <v>782</v>
-      </c>
-      <c r="AL5" s="20" t="s">
-        <v>568</v>
-      </c>
-      <c r="AM5" s="11" t="s">
-        <v>800</v>
-      </c>
-      <c r="AO5" s="10" t="s">
-        <v>194</v>
-      </c>
       <c r="AP5" s="11" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
     </row>
     <row r="6" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B6" s="10" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="AI6" s="10" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="AJ6" s="11" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="AL6" s="16" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="AM6" s="11" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
     </row>
     <row r="7" spans="2:42" x14ac:dyDescent="0.35">
       <c r="C7" s="11"/>
       <c r="AI7" s="10" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="AJ7" s="11" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="AL7" s="13" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="AM7" s="11" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
       <c r="AO7" s="15" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="T8" s="31" t="s">
+        <v>542</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="X8" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="Z8" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA8" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>635</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="AC8" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>612</v>
-      </c>
-      <c r="H8" s="10" t="s">
+      <c r="AD8" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="AF8" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>723</v>
-      </c>
-      <c r="K8" s="10" t="s">
+      <c r="AG8" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="AI8" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="L8" s="11" t="s">
-        <v>745</v>
-      </c>
-      <c r="N8" s="10" t="s">
+      <c r="AJ8" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="AL8" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="O8" s="11" t="s">
-        <v>766</v>
-      </c>
-      <c r="Q8" s="10" t="s">
+      <c r="AM8" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="AO8" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="R8" s="11" t="s">
-        <v>788</v>
-      </c>
-      <c r="T8" s="31" t="s">
-        <v>554</v>
-      </c>
-      <c r="U8" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="W8" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="X8" s="11" t="s">
-        <v>689</v>
-      </c>
-      <c r="Z8" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA8" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="AC8" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD8" s="11" t="s">
-        <v>712</v>
-      </c>
-      <c r="AF8" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="AG8" s="11" t="s">
-        <v>701</v>
-      </c>
-      <c r="AI8" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="AJ8" s="11" t="s">
-        <v>784</v>
-      </c>
-      <c r="AL8" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="AM8" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="AO8" s="10" t="s">
-        <v>217</v>
-      </c>
       <c r="AP8" s="11" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
     </row>
     <row r="9" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="AI9" s="10" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AJ9" s="11" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="AO9" s="10" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AP9" s="11" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
     </row>
     <row r="10" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B10" s="10" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="AI10" s="10" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="AJ10" s="11" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="AL10" s="15" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AO10" s="10" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AP10" s="11" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
     </row>
     <row r="11" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B11" s="10" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="AL11" s="10" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="AM11" s="11" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="AO11" s="10" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="AP11" s="11" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
     </row>
     <row r="12" spans="2:42" x14ac:dyDescent="0.35">
       <c r="H12" s="10" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="T12" s="31" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="X12" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="AC12" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD12" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="AF12" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="AG12" s="11" t="s">
         <v>690</v>
       </c>
-      <c r="AC12" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="AD12" s="11" t="s">
-        <v>713</v>
-      </c>
-      <c r="AF12" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="AG12" s="11" t="s">
-        <v>702</v>
-      </c>
       <c r="AI12" s="14" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AJ12" s="14"/>
       <c r="AL12" s="10" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="AM12" s="11" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="2:42" x14ac:dyDescent="0.35">
       <c r="E13" s="10" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="N13" s="21"/>
       <c r="T13" s="21"/>
       <c r="AI13" s="31" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="AJ13" s="11" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
       <c r="AL13" s="10" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AM13" s="11" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="AO13" s="15" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="2:42" x14ac:dyDescent="0.35">
       <c r="E14" s="10" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="AI14" s="31" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="AJ14" s="11" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="AL14" s="10" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="AM14" s="11" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AO14" s="10" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="AP14" s="11" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="2:42" x14ac:dyDescent="0.35">
       <c r="E15" s="10" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="K15" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>778</v>
+      </c>
+      <c r="W15" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="AC15" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="AD15" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="AF15" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG15" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="AI15" s="31" t="s">
+        <v>528</v>
+      </c>
+      <c r="AJ15" s="11" t="s">
+        <v>793</v>
+      </c>
+      <c r="AL15" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM15" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO15" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="L15" s="11" t="s">
-        <v>751</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>769</v>
-      </c>
-      <c r="Q15" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>790</v>
-      </c>
-      <c r="W15" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="X15" s="11" t="s">
-        <v>691</v>
-      </c>
-      <c r="AC15" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="AD15" s="11" t="s">
-        <v>714</v>
-      </c>
-      <c r="AF15" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="AG15" s="11" t="s">
-        <v>703</v>
-      </c>
-      <c r="AI15" s="31" t="s">
-        <v>540</v>
-      </c>
-      <c r="AJ15" s="11" t="s">
-        <v>805</v>
-      </c>
-      <c r="AL15" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="AM15" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="AO15" s="10" t="s">
-        <v>266</v>
-      </c>
       <c r="AP15" s="11" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
     </row>
     <row r="16" spans="2:42" x14ac:dyDescent="0.35">
       <c r="H16" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>779</v>
+      </c>
+      <c r="W16" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="X16" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="Z16" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA16" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC16" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD16" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="AF16" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="I16" s="11" t="s">
-        <v>727</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="N16" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>770</v>
-      </c>
-      <c r="Q16" s="10" t="s">
+      <c r="AG16" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="AL16" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="AM16" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="AO16" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="R16" s="11" t="s">
-        <v>791</v>
-      </c>
-      <c r="W16" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="X16" s="11" t="s">
-        <v>692</v>
-      </c>
-      <c r="Z16" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA16" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="AC16" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD16" s="11" t="s">
-        <v>715</v>
-      </c>
-      <c r="AF16" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="AG16" s="11" t="s">
-        <v>704</v>
-      </c>
-      <c r="AL16" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="AM16" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="AO16" s="10" t="s">
-        <v>278</v>
-      </c>
       <c r="AP16" s="11" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
     </row>
     <row r="17" spans="5:42" x14ac:dyDescent="0.35">
       <c r="H17" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="W17" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="X17" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="Z17" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA17" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC17" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD17" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="AF17" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="I17" s="11" t="s">
-        <v>728</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>753</v>
-      </c>
-      <c r="N17" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="O17" s="11" t="s">
-        <v>771</v>
-      </c>
-      <c r="Q17" s="10" t="s">
+      <c r="AG17" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="AI17" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="AO17" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="R17" s="11" t="s">
-        <v>792</v>
-      </c>
-      <c r="W17" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="X17" s="11" t="s">
-        <v>693</v>
-      </c>
-      <c r="Z17" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="AA17" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="AC17" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="AD17" s="11" t="s">
-        <v>716</v>
-      </c>
-      <c r="AF17" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="AG17" s="11" t="s">
-        <v>705</v>
-      </c>
-      <c r="AI17" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="AO17" s="10" t="s">
-        <v>290</v>
-      </c>
       <c r="AP17" s="11" t="s">
-        <v>291</v>
+        <v>841</v>
       </c>
     </row>
     <row r="18" spans="5:42" x14ac:dyDescent="0.35">
       <c r="H18" s="10" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="X18" s="11" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="AA18" s="11"/>
       <c r="AC18" s="31" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="AD18" s="11" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="AF18" s="31" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="AG18" s="11" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="AI18" s="32" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="AJ18" s="11" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="AL18" s="10" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="AM18" s="11" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="AO18" s="10" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="AP18" s="11" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
     </row>
     <row r="19" spans="5:42" x14ac:dyDescent="0.35">
-      <c r="E19" s="47" t="s">
-        <v>443</v>
-      </c>
-      <c r="F19" s="47"/>
+      <c r="E19" s="50" t="s">
+        <v>434</v>
+      </c>
+      <c r="F19" s="50"/>
       <c r="H19" s="10" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="Q19" s="21" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="W19" s="21" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="X19" s="11" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="AA19" s="11"/>
       <c r="AC19" s="22" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="AD19" s="11" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="AF19" s="22" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="AG19" s="11" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="AI19" s="20" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="AJ19" s="11" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="AL19" s="10" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="AM19" s="11" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="AO19" s="10" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="AP19" s="11" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="20" spans="5:42" x14ac:dyDescent="0.35">
       <c r="H20" s="10" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="N20" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="AI20" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="AJ20" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="AL20" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="O20" s="11" t="s">
-        <v>774</v>
-      </c>
-      <c r="AI20" s="20" t="s">
-        <v>543</v>
-      </c>
-      <c r="AJ20" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="AL20" s="10" t="s">
-        <v>319</v>
-      </c>
       <c r="AM20" s="11" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="AO20" s="21" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="AP20" s="11" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
     </row>
     <row r="21" spans="5:42" x14ac:dyDescent="0.35">
       <c r="H21" s="10" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="N21" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="AL21" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="O21" s="11" t="s">
-        <v>599</v>
-      </c>
-      <c r="AL21" s="10" t="s">
-        <v>324</v>
-      </c>
       <c r="AM21" s="11" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="AO21" s="10" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="AP21" s="11" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="5:42" x14ac:dyDescent="0.35">
       <c r="AL22" s="10" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="AM22" s="11" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="AO22" s="10" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="AP22" s="11" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="5:42" x14ac:dyDescent="0.35">
       <c r="H23" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="AL23" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="I23" s="11" t="s">
-        <v>731</v>
-      </c>
-      <c r="AL23" s="21" t="s">
-        <v>331</v>
-      </c>
       <c r="AM23" s="11" t="s">
-        <v>813</v>
+        <v>801</v>
+      </c>
+      <c r="AO23" s="31" t="s">
+        <v>842</v>
+      </c>
+      <c r="AP23" s="11" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="24" spans="5:42" x14ac:dyDescent="0.35">
       <c r="H24" s="10" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>775</v>
+        <v>763</v>
+      </c>
+      <c r="AO24" s="31" t="s">
+        <v>843</v>
+      </c>
+      <c r="AP24" s="11" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="26" spans="5:42" x14ac:dyDescent="0.35">
       <c r="H26" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="O26" s="11" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="U26" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="27" spans="5:42" x14ac:dyDescent="0.35">
       <c r="H27" s="10" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="O27" s="11" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="Q27" s="10" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="T27" s="10" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="U27" s="11" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="W27" s="10" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="X27" s="11" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="AA27" s="11"/>
       <c r="AC27" s="13" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="AD27" s="11" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="AF27" s="13" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="AG27" s="11" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
     </row>
     <row r="28" spans="5:42" x14ac:dyDescent="0.35">
       <c r="H28" s="10" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="O28" s="11" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="U28" s="11" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="X28" s="11" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="AC28" s="13" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="AD28" s="11" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="AF28" s="13" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="AG28" s="11" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -7189,8 +7250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.6" x14ac:dyDescent="0.35"/>
@@ -7211,336 +7272,358 @@
   <sheetData>
     <row r="1" spans="2:12" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="B2" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="36" t="s">
         <v>355</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="B2" s="51" t="s">
-        <v>361</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>362</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>364</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>368</v>
-      </c>
     </row>
     <row r="3" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="B3" s="52" t="s">
-        <v>570</v>
+      <c r="B3" s="47" t="s">
+        <v>558</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="B4" s="52" t="s">
-        <v>571</v>
+      <c r="B4" s="47" t="s">
+        <v>559</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="56.6" x14ac:dyDescent="0.35">
       <c r="B6" s="34" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="H6" s="6">
         <v>64</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="53" t="s">
-        <v>373</v>
+      <c r="B7" s="48" t="s">
+        <v>364</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="6" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="H7" s="6">
         <v>64</v>
       </c>
       <c r="I7" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="48" t="s">
+        <v>366</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>833</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>589</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>368</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="53" t="s">
-        <v>375</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>845</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>601</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>377</v>
       </c>
       <c r="H8" s="6">
         <v>128</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="H9" s="6">
         <v>64</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="H10" s="6">
         <v>512</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="99" x14ac:dyDescent="0.35">
-      <c r="B11" s="53" t="s">
-        <v>384</v>
+      <c r="B11" s="48" t="s">
+        <v>375</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="H11" s="6">
         <v>64</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="42.45" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H13" s="6">
         <v>64</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="H14" s="6">
         <v>128</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="24"/>
-      <c r="I15" s="24"/>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="B15" s="24" t="s">
+        <v>834</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>835</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>836</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>837</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>838</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>839</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>357</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -7578,333 +7661,333 @@
   <sheetData>
     <row r="1" spans="2:12" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="1" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="56.6" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="42.45" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="56.6" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="56.6" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
       <c r="H7" s="2">
         <v>512</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="113.15" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>825</v>
+        <v>813</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="H8" s="2">
         <v>256</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="56.6" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="H9" s="2">
         <v>512</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="H10" s="2">
         <v>256</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="155.6" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
       <c r="H11" s="2">
         <v>512</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="99" x14ac:dyDescent="0.35">
       <c r="B12" s="18" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="H12" s="2">
         <v>512</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="70.75" x14ac:dyDescent="0.35">
       <c r="B13" s="18" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="7"/>
@@ -7912,154 +7995,154 @@
         <v>128</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="29.15" x14ac:dyDescent="0.35">
       <c r="B14" s="18" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="H14" s="2">
         <v>512</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>829</v>
+        <v>817</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
       <c r="H15" s="2">
         <v>512</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="29.15" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="H16" s="2">
         <v>2048</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="141.44999999999999" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="M18" s="18" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="127.3" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="198" x14ac:dyDescent="0.35">
       <c r="B20" s="18" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.35">
@@ -8093,18 +8176,18 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B1" s="25" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="25" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="D2" s="26">
         <v>0.03</v>
@@ -8112,10 +8195,10 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" s="25" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="D3" s="26">
         <v>1</v>
@@ -8123,10 +8206,10 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="25" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="D4" s="26">
         <v>1</v>
@@ -8134,10 +8217,10 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="25" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="D5" s="26">
         <v>5</v>
@@ -8145,10 +8228,10 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="25" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="D6" s="26">
         <v>1</v>
@@ -8156,24 +8239,24 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>456</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>465</v>
       </c>
       <c r="D7" s="26">
         <v>1</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="25" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="D8" s="26">
         <v>1</v>
@@ -8181,21 +8264,21 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" s="25" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>459</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>468</v>
-      </c>
       <c r="D10" s="25" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -8223,88 +8306,88 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
-        <v>479</v>
+      <c r="A2" s="51" t="s">
+        <v>470</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A3" s="49"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="6">
         <v>2</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="49"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="6">
         <v>3</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A5" s="49"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A6" s="49"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A7" s="49"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -8314,22 +8397,22 @@
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="99" x14ac:dyDescent="0.35">
-      <c r="A10" s="50" t="s">
-        <v>488</v>
+      <c r="A10" s="53" t="s">
+        <v>479</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="18" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A11" s="50"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -8354,156 +8437,156 @@
   <sheetData>
     <row r="2" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.6" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.6" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.6" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/参考/参考/资料/1.18版本策划.xlsx
+++ b/参考/参考/资料/1.18版本策划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hqyzsy\IdeaProjects\micro_machinery\参考\参考\资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5DB5D6-27CE-4C69-8685-B8DA1CCAE28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFB3B25-0946-4BD4-A97B-1BCDC265EA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16457" yWindow="0" windowWidth="16457" windowHeight="17914" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增方块" sheetId="1" r:id="rId1"/>
@@ -836,7 +836,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="852">
   <si>
     <t>矿石</t>
   </si>
@@ -1810,9 +1810,6 @@
     <t>铜粉</t>
   </si>
   <si>
-    <t>灼热的铁锭</t>
-  </si>
-  <si>
     <t>铜板</t>
   </si>
   <si>
@@ -1826,9 +1823,6 @@
   </si>
   <si>
     <t>铁粉</t>
-  </si>
-  <si>
-    <t>灼热的钢锭</t>
   </si>
   <si>
     <t>铁板</t>
@@ -3642,14 +3636,6 @@
   </si>
   <si>
     <t>ingot_graphite</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>hot_ingot_iron</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>hot_ingot_steel</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -4825,7 +4811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
@@ -4863,13 +4849,13 @@
         <v>1</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="L1" s="39" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>3</v>
@@ -4889,14 +4875,14 @@
         <v>7</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="31" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>8</v>
@@ -4905,10 +4891,10 @@
         <v>9</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="Q2" s="17" t="s">
         <v>10</v>
@@ -4922,7 +4908,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>13</v>
@@ -4932,10 +4918,10 @@
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="31" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>15</v>
@@ -4944,16 +4930,16 @@
         <v>16</v>
       </c>
       <c r="N3" s="31" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>17</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.35">
@@ -4961,20 +4947,20 @@
         <v>18</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="31" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>20</v>
@@ -4983,37 +4969,37 @@
         <v>21</v>
       </c>
       <c r="N4" s="31" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="O4" s="11" t="s">
         <v>22</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B5" s="31" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="31" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>24</v>
@@ -5022,7 +5008,7 @@
         <v>25</v>
       </c>
       <c r="N5" s="31" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="O5" s="11" t="s">
         <v>26</v>
@@ -5039,20 +5025,20 @@
         <v>29</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="31" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>31</v>
@@ -5073,14 +5059,14 @@
         <v>35</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I7" s="11"/>
       <c r="N7" s="10" t="s">
         <v>36</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.35">
@@ -5088,20 +5074,20 @@
         <v>37</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="31" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>39</v>
@@ -5113,7 +5099,7 @@
         <v>41</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>42</v>
@@ -5127,20 +5113,20 @@
         <v>44</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="31" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>46</v>
@@ -5152,10 +5138,10 @@
         <v>48</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="Q9" s="31" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="R9" s="11" t="s">
         <v>49</v>
@@ -5166,20 +5152,20 @@
         <v>50</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="31" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>52</v>
@@ -5191,10 +5177,10 @@
         <v>54</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="Q10" s="31" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="R10" s="11" t="s">
         <v>55</v>
@@ -5205,20 +5191,20 @@
         <v>56</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>57</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="31" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>58</v>
@@ -5240,7 +5226,7 @@
         <v>62</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G12" s="11"/>
       <c r="I12" s="11"/>
@@ -5254,21 +5240,21 @@
         <v>65</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B13" s="31" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>66</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G13" s="11"/>
       <c r="I13" s="11"/>
@@ -5282,13 +5268,13 @@
         <v>69</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="Q13" s="31" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.35">
@@ -5296,19 +5282,19 @@
         <v>70</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="N14" s="17" t="s">
         <v>71</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="Q14" s="31" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.35">
@@ -5316,13 +5302,13 @@
         <v>72</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>73</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="G15" s="11"/>
       <c r="I15" s="11"/>
@@ -5336,13 +5322,13 @@
         <v>76</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="Q15" s="31" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.35">
@@ -5350,13 +5336,13 @@
         <v>77</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>78</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G16" s="11"/>
       <c r="I16" s="11"/>
@@ -5367,10 +5353,10 @@
         <v>80</v>
       </c>
       <c r="Q16" s="31" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.35">
@@ -5378,7 +5364,7 @@
         <v>81</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G17" s="11"/>
       <c r="I17" s="11"/>
@@ -5401,13 +5387,13 @@
         <v>86</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>87</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G18" s="11"/>
       <c r="I18" s="11"/>
@@ -5429,21 +5415,21 @@
         <v>92</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>93</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="G19" s="11"/>
       <c r="I19" s="11"/>
       <c r="K19" s="31" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.35">
@@ -5451,13 +5437,13 @@
         <v>94</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>95</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G20" s="11"/>
       <c r="I20" s="11"/>
@@ -5466,7 +5452,7 @@
         <v>97</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.35">
@@ -5474,7 +5460,7 @@
         <v>96</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>99</v>
@@ -5486,7 +5472,7 @@
         <v>104</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.35">
@@ -5494,7 +5480,7 @@
         <v>98</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E22" s="31"/>
       <c r="K22" s="10" t="s">
@@ -5511,7 +5497,7 @@
         <v>101</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>105</v>
@@ -5554,7 +5540,7 @@
         <v>505</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
@@ -5565,7 +5551,7 @@
         <v>1235</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
@@ -5576,7 +5562,7 @@
         <v>1356</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
@@ -5587,7 +5573,7 @@
         <v>1726</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
@@ -5598,7 +5584,7 @@
         <v>933</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
@@ -5609,7 +5595,7 @@
         <v>1517</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
@@ -5623,7 +5609,7 @@
         <v>2130</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
@@ -5634,7 +5620,7 @@
         <v>2163</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
@@ -5645,7 +5631,7 @@
         <v>1768</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
@@ -5656,7 +5642,7 @@
         <v>1941</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
@@ -5667,7 +5653,7 @@
         <v>3683</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
@@ -5681,7 +5667,7 @@
         <v>1170</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
@@ -5692,7 +5678,7 @@
         <v>1723</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
@@ -5703,7 +5689,7 @@
         <v>1570</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
@@ -5714,7 +5700,7 @@
         <v>1893</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
@@ -5725,7 +5711,7 @@
         <v>1700</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
@@ -5739,7 +5725,7 @@
         <v>1356</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
@@ -5750,7 +5736,7 @@
         <v>1800</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
@@ -5761,7 +5747,7 @@
         <v>1337</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
@@ -5772,7 +5758,7 @@
         <v>293</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
@@ -5783,7 +5769,7 @@
         <v>293</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
@@ -5794,7 +5780,7 @@
         <v>293</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
@@ -5805,59 +5791,59 @@
         <v>293</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="20" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C30" s="11">
         <v>270</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E30" s="49" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F30" s="49"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="20" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C31" s="11">
         <v>400</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E31" s="49"/>
       <c r="F31" s="49"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="20" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C32" s="11">
         <v>550</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E32" s="49"/>
       <c r="F32" s="49"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="20" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C33" s="11">
         <v>610</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E33" s="49"/>
       <c r="F33" s="49"/>
@@ -5875,8 +5861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AP28"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -5987,61 +5973,61 @@
         <v>144</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>145</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>146</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>147</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>148</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="T2" s="10" t="s">
         <v>149</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AI2" s="10" t="s">
         <v>141</v>
       </c>
       <c r="AJ2" s="11" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="AL2" s="13" t="s">
         <v>150</v>
       </c>
       <c r="AM2" s="11" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="AO2" s="13" t="s">
         <v>151</v>
       </c>
       <c r="AP2" s="11" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="3" spans="2:42" x14ac:dyDescent="0.35">
@@ -6049,79 +6035,79 @@
         <v>152</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>153</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>154</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>155</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>156</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="R3" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="T3" s="31" t="s">
         <v>543</v>
       </c>
-      <c r="T3" s="31" t="s">
-        <v>545</v>
-      </c>
       <c r="U3" s="11" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="W3" s="10" t="s">
         <v>157</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="AC3" s="13" t="s">
         <v>158</v>
       </c>
       <c r="AD3" s="11" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="AF3" s="13" t="s">
         <v>159</v>
       </c>
       <c r="AG3" s="11" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="AI3" s="10" t="s">
         <v>160</v>
       </c>
       <c r="AJ3" s="11" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="AL3" s="13" t="s">
         <v>161</v>
       </c>
       <c r="AM3" s="11" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="AO3" s="10" t="s">
         <v>162</v>
       </c>
       <c r="AP3" s="11" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="4" spans="2:42" x14ac:dyDescent="0.35">
@@ -6129,67 +6115,67 @@
         <v>163</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>165</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>166</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>167</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="W4" s="10" t="s">
         <v>168</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AC4" s="13" t="s">
         <v>169</v>
       </c>
       <c r="AD4" s="11" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="AF4" s="13" t="s">
         <v>170</v>
       </c>
       <c r="AG4" s="11" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AI4" s="10" t="s">
         <v>171</v>
       </c>
       <c r="AJ4" s="11" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="AL4" s="13" t="s">
         <v>172</v>
       </c>
       <c r="AM4" s="11" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AO4" s="10" t="s">
         <v>173</v>
       </c>
       <c r="AP4" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="2:42" x14ac:dyDescent="0.35">
@@ -6197,13 +6183,13 @@
         <v>174</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>175</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>176</v>
@@ -6215,61 +6201,61 @@
         <v>178</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>179</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="Q5" s="10" t="s">
         <v>180</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="T5" s="10" t="s">
         <v>181</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="W5" s="10" t="s">
         <v>182</v>
       </c>
       <c r="X5" s="11" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="AC5" s="13" t="s">
         <v>183</v>
       </c>
       <c r="AD5" s="11" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AF5" s="13" t="s">
         <v>184</v>
       </c>
       <c r="AG5" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="AI5" s="10" t="s">
         <v>185</v>
       </c>
       <c r="AJ5" s="11" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="AL5" s="20" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AM5" s="11" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="AO5" s="10" t="s">
         <v>186</v>
       </c>
       <c r="AP5" s="11" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="6" spans="2:42" x14ac:dyDescent="0.35">
@@ -6277,37 +6263,37 @@
         <v>187</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>188</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>189</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>190</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="AI6" s="10" t="s">
         <v>191</v>
       </c>
       <c r="AJ6" s="11" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="AL6" s="16" t="s">
         <v>192</v>
       </c>
       <c r="AM6" s="11" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="7" spans="2:42" x14ac:dyDescent="0.35">
@@ -6316,13 +6302,13 @@
         <v>193</v>
       </c>
       <c r="AJ7" s="11" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AL7" s="13" t="s">
         <v>194</v>
       </c>
       <c r="AM7" s="11" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="AO7" s="15" t="s">
         <v>195</v>
@@ -6333,49 +6319,49 @@
         <v>196</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>197</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>198</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>199</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="N8" s="10" t="s">
         <v>200</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>201</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="T8" s="31" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="W8" s="10" t="s">
         <v>202</v>
       </c>
       <c r="X8" s="11" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="Z8" s="10" t="s">
         <v>203</v>
@@ -6387,31 +6373,31 @@
         <v>205</v>
       </c>
       <c r="AD8" s="11" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AF8" s="13" t="s">
         <v>206</v>
       </c>
       <c r="AG8" s="11" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="AI8" s="10" t="s">
         <v>207</v>
       </c>
       <c r="AJ8" s="11" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="AL8" s="13" t="s">
         <v>208</v>
       </c>
       <c r="AM8" s="11" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AO8" s="10" t="s">
         <v>209</v>
       </c>
       <c r="AP8" s="11" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="9" spans="2:42" x14ac:dyDescent="0.35">
@@ -6419,43 +6405,43 @@
         <v>210</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>211</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>212</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>213</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="N9" s="10" t="s">
         <v>214</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="AI9" s="10" t="s">
         <v>215</v>
       </c>
       <c r="AJ9" s="11" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="AO9" s="10" t="s">
         <v>216</v>
       </c>
       <c r="AP9" s="11" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="10" spans="2:42" x14ac:dyDescent="0.35">
@@ -6463,31 +6449,31 @@
         <v>217</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>218</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>219</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>220</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="AI10" s="10" t="s">
         <v>221</v>
       </c>
       <c r="AJ10" s="11" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AL10" s="15" t="s">
         <v>235</v>
@@ -6496,7 +6482,7 @@
         <v>222</v>
       </c>
       <c r="AP10" s="11" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="11" spans="2:42" x14ac:dyDescent="0.35">
@@ -6504,25 +6490,25 @@
         <v>223</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>224</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>225</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>226</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="AL11" s="10" t="s">
         <v>239</v>
@@ -6534,7 +6520,7 @@
         <v>227</v>
       </c>
       <c r="AP11" s="11" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="12" spans="2:42" x14ac:dyDescent="0.35">
@@ -6542,49 +6528,49 @@
         <v>228</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>229</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>230</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="Q12" s="10" t="s">
         <v>231</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="T12" s="31" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="W12" s="10" t="s">
         <v>232</v>
       </c>
       <c r="X12" s="11" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AC12" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AD12" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="AF12" s="13" t="s">
         <v>234</v>
       </c>
       <c r="AG12" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AI12" s="14" t="s">
         <v>243</v>
@@ -6602,27 +6588,27 @@
         <v>236</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>237</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K13" s="21" t="s">
         <v>238</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="N13" s="21"/>
       <c r="T13" s="21"/>
       <c r="AI13" s="31" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AJ13" s="11" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="AL13" s="10" t="s">
         <v>256</v>
@@ -6639,13 +6625,13 @@
         <v>242</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AI14" s="31" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AJ14" s="11" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="AL14" s="10" t="s">
         <v>268</v>
@@ -6665,55 +6651,55 @@
         <v>248</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>249</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>250</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="N15" s="10" t="s">
         <v>251</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="Q15" s="10" t="s">
         <v>252</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="W15" s="10" t="s">
         <v>253</v>
       </c>
       <c r="X15" s="11" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="AC15" s="13" t="s">
         <v>254</v>
       </c>
       <c r="AD15" s="11" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AF15" s="13" t="s">
         <v>255</v>
       </c>
       <c r="AG15" s="11" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AI15" s="31" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="AJ15" s="11" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="AL15" s="10" t="s">
         <v>280</v>
@@ -6725,7 +6711,7 @@
         <v>258</v>
       </c>
       <c r="AP15" s="11" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="16" spans="2:42" x14ac:dyDescent="0.35">
@@ -6733,31 +6719,31 @@
         <v>259</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>260</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="N16" s="10" t="s">
         <v>261</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>262</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="W16" s="10" t="s">
         <v>263</v>
       </c>
       <c r="X16" s="11" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Z16" s="10" t="s">
         <v>264</v>
@@ -6769,13 +6755,13 @@
         <v>266</v>
       </c>
       <c r="AD16" s="11" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="AF16" s="13" t="s">
         <v>267</v>
       </c>
       <c r="AG16" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="AL16" s="21" t="s">
         <v>288</v>
@@ -6787,7 +6773,7 @@
         <v>270</v>
       </c>
       <c r="AP16" s="11" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="17" spans="5:42" x14ac:dyDescent="0.35">
@@ -6795,31 +6781,31 @@
         <v>271</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>272</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="N17" s="10" t="s">
         <v>273</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="Q17" s="10" t="s">
         <v>274</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="W17" s="10" t="s">
         <v>275</v>
       </c>
       <c r="X17" s="11" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="Z17" s="10" t="s">
         <v>276</v>
@@ -6831,13 +6817,13 @@
         <v>278</v>
       </c>
       <c r="AD17" s="11" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AF17" s="13" t="s">
         <v>279</v>
       </c>
       <c r="AG17" s="11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AI17" s="15" t="s">
         <v>314</v>
@@ -6846,7 +6832,7 @@
         <v>282</v>
       </c>
       <c r="AP17" s="11" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="18" spans="5:42" x14ac:dyDescent="0.35">
@@ -6854,47 +6840,47 @@
         <v>283</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>284</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>285</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="Q18" s="10" t="s">
         <v>286</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="W18" s="10" t="s">
         <v>287</v>
       </c>
       <c r="X18" s="11" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="AA18" s="11"/>
       <c r="AC18" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="AD18" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF18" s="31" t="s">
         <v>546</v>
       </c>
-      <c r="AD18" s="11" t="s">
+      <c r="AG18" s="11" t="s">
         <v>547</v>
       </c>
-      <c r="AF18" s="31" t="s">
-        <v>548</v>
-      </c>
-      <c r="AG18" s="11" t="s">
-        <v>549</v>
-      </c>
       <c r="AI18" s="32" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AJ18" s="11" t="s">
         <v>319</v>
@@ -6903,65 +6889,65 @@
         <v>302</v>
       </c>
       <c r="AM18" s="11" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="AO18" s="10" t="s">
         <v>290</v>
       </c>
       <c r="AP18" s="11" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="19" spans="5:42" x14ac:dyDescent="0.35">
       <c r="E19" s="50" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F19" s="50"/>
       <c r="H19" s="10" t="s">
         <v>291</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="K19" s="21" t="s">
         <v>292</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="N19" s="21" t="s">
         <v>293</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="Q19" s="21" t="s">
         <v>294</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="W19" s="21" t="s">
         <v>295</v>
       </c>
       <c r="X19" s="11" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AA19" s="11"/>
       <c r="AC19" s="22" t="s">
         <v>296</v>
       </c>
       <c r="AD19" s="11" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AF19" s="22" t="s">
         <v>297</v>
       </c>
       <c r="AG19" s="11" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AI19" s="20" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AJ19" s="11" t="s">
         <v>321</v>
@@ -6970,13 +6956,13 @@
         <v>307</v>
       </c>
       <c r="AM19" s="11" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="AO19" s="10" t="s">
         <v>298</v>
       </c>
       <c r="AP19" s="11" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="20" spans="5:42" x14ac:dyDescent="0.35">
@@ -6984,37 +6970,37 @@
         <v>299</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>300</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="N20" s="10" t="s">
         <v>301</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="AI20" s="20" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AJ20" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AL20" s="10" t="s">
         <v>310</v>
       </c>
       <c r="AM20" s="11" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="AO20" s="21" t="s">
         <v>303</v>
       </c>
       <c r="AP20" s="11" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="21" spans="5:42" x14ac:dyDescent="0.35">
@@ -7022,25 +7008,25 @@
         <v>304</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="K21" s="21" t="s">
         <v>305</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="N21" s="21" t="s">
         <v>306</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AL21" s="10" t="s">
         <v>315</v>
       </c>
       <c r="AM21" s="11" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="AO21" s="10" t="s">
         <v>308</v>
@@ -7054,7 +7040,7 @@
         <v>320</v>
       </c>
       <c r="AM22" s="11" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="AO22" s="10" t="s">
         <v>311</v>
@@ -7068,19 +7054,19 @@
         <v>313</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AL23" s="21" t="s">
         <v>322</v>
       </c>
       <c r="AM23" s="11" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="AO23" s="31" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="AP23" s="11" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="24" spans="5:42" x14ac:dyDescent="0.35">
@@ -7088,25 +7074,25 @@
         <v>316</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>317</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>318</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="AO24" s="31" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="AP24" s="11" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="26" spans="5:42" x14ac:dyDescent="0.35">
@@ -7114,126 +7100,114 @@
         <v>323</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>721</v>
-      </c>
-      <c r="K26" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="N26" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="L26" s="11" t="s">
-        <v>747</v>
-      </c>
-      <c r="N26" s="10" t="s">
+      <c r="O26" s="11" t="s">
+        <v>760</v>
+      </c>
+      <c r="Q26" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="O26" s="11" t="s">
-        <v>764</v>
-      </c>
-      <c r="Q26" s="10" t="s">
+      <c r="R26" s="11" t="s">
+        <v>779</v>
+      </c>
+      <c r="T26" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="R26" s="11" t="s">
-        <v>783</v>
-      </c>
-      <c r="T26" s="10" t="s">
-        <v>327</v>
-      </c>
       <c r="U26" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="27" spans="5:42" x14ac:dyDescent="0.35">
       <c r="H27" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="N27" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="I27" s="11" t="s">
-        <v>722</v>
-      </c>
-      <c r="K27" s="10" t="s">
+      <c r="O27" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q27" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="L27" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="N27" s="10" t="s">
+      <c r="R27" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="T27" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="O27" s="11" t="s">
-        <v>765</v>
-      </c>
-      <c r="Q27" s="10" t="s">
+      <c r="U27" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="W27" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="R27" s="11" t="s">
-        <v>784</v>
-      </c>
-      <c r="T27" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="U27" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="W27" s="10" t="s">
-        <v>334</v>
-      </c>
       <c r="X27" s="11" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AA27" s="11"/>
       <c r="AC27" s="13" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AD27" s="11" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="AF27" s="13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AG27" s="11" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="28" spans="5:42" x14ac:dyDescent="0.35">
       <c r="H28" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="O28" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="Q28" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="I28" s="11" t="s">
-        <v>723</v>
-      </c>
-      <c r="N28" s="10" t="s">
+      <c r="R28" s="11" t="s">
+        <v>781</v>
+      </c>
+      <c r="T28" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="O28" s="11" t="s">
-        <v>766</v>
-      </c>
-      <c r="Q28" s="10" t="s">
+      <c r="U28" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="W28" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="R28" s="11" t="s">
-        <v>785</v>
-      </c>
-      <c r="T28" s="10" t="s">
+      <c r="X28" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="AC28" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="U28" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="W28" s="10" t="s">
+      <c r="AD28" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="AF28" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="X28" s="11" t="s">
-        <v>685</v>
-      </c>
-      <c r="AC28" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="AD28" s="11" t="s">
-        <v>707</v>
-      </c>
-      <c r="AF28" s="13" t="s">
-        <v>343</v>
-      </c>
       <c r="AG28" s="11" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
   </sheetData>
@@ -7272,357 +7246,357 @@
   <sheetData>
     <row r="1" spans="2:12" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>143</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B2" s="46" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="E2" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="H2" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>357</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B3" s="47" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="H3" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>357</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B4" s="47" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="H4" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>359</v>
-      </c>
       <c r="L4" s="24" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="56.6" x14ac:dyDescent="0.35">
       <c r="B6" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="E6" s="40" t="s">
+        <v>647</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>560</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>649</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>562</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>363</v>
       </c>
       <c r="H6" s="6">
         <v>64</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="48" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H7" s="6">
         <v>64</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>829</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>587</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>366</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>833</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>589</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>368</v>
       </c>
       <c r="H8" s="6">
         <v>128</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H9" s="6">
         <v>64</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>825</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>372</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>829</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>374</v>
       </c>
       <c r="H10" s="6">
         <v>512</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="99" x14ac:dyDescent="0.35">
       <c r="B11" s="48" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H11" s="6">
         <v>64</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="42.45" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="F13" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>379</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>381</v>
       </c>
       <c r="H13" s="6">
         <v>64</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="E14" s="24" t="s">
+        <v>586</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>384</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>588</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>386</v>
       </c>
       <c r="H14" s="6">
         <v>128</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B15" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>831</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>832</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>833</v>
+      </c>
+      <c r="F15" s="24" t="s">
         <v>834</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="G15" s="24" t="s">
         <v>835</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>836</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>837</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>838</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>839</v>
-      </c>
       <c r="I15" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -7661,333 +7635,333 @@
   <sheetData>
     <row r="1" spans="2:12" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>143</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="56.6" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>818</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>433</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>822</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="42.45" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="H3" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>798</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>802</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>798</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>802</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="56.6" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="56.6" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="E7" s="19" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="H7" s="2">
         <v>512</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="113.15" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="H8" s="2">
         <v>256</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="56.6" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>409</v>
-      </c>
       <c r="E9" s="19" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H9" s="2">
         <v>512</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="H10" s="2">
         <v>256</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="155.6" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="H11" s="2">
         <v>512</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="99" x14ac:dyDescent="0.35">
       <c r="B12" s="18" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="H12" s="2">
         <v>512</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="70.75" x14ac:dyDescent="0.35">
       <c r="B13" s="18" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="7"/>
@@ -7995,154 +7969,154 @@
         <v>128</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="29.15" x14ac:dyDescent="0.35">
       <c r="B14" s="18" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="H14" s="2">
         <v>512</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="H15" s="2">
         <v>512</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="29.15" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="H16" s="2">
         <v>2048</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="141.44999999999999" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="L18" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="M18" s="18" t="s">
         <v>550</v>
       </c>
-      <c r="M18" s="18" t="s">
-        <v>552</v>
-      </c>
       <c r="N18" s="18" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="127.3" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="198" x14ac:dyDescent="0.35">
       <c r="B20" s="18" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.35">
@@ -8176,18 +8150,18 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B1" s="25" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="25" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D2" s="26">
         <v>0.03</v>
@@ -8195,10 +8169,10 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" s="25" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D3" s="26">
         <v>1</v>
@@ -8206,10 +8180,10 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="25" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D4" s="26">
         <v>1</v>
@@ -8217,10 +8191,10 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="25" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D5" s="26">
         <v>5</v>
@@ -8228,10 +8202,10 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="25" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D6" s="26">
         <v>1</v>
@@ -8239,24 +8213,24 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="25" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D7" s="26">
         <v>1</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="25" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D8" s="26">
         <v>1</v>
@@ -8264,21 +8238,21 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" s="25" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" s="25" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -8307,22 +8281,22 @@
   <sheetData>
     <row r="2" spans="1:6" ht="56.6" x14ac:dyDescent="0.35">
       <c r="A2" s="51" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
@@ -8331,13 +8305,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="56.6" x14ac:dyDescent="0.35">
@@ -8346,10 +8320,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F4" s="28"/>
     </row>
@@ -8359,7 +8333,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E5" s="18"/>
     </row>
@@ -8369,16 +8343,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="F6" s="24" t="s">
         <v>466</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>467</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
@@ -8387,7 +8361,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -8398,21 +8372,21 @@
     </row>
     <row r="10" spans="1:6" ht="99" x14ac:dyDescent="0.35">
       <c r="A10" s="53" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="18" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="70.75" x14ac:dyDescent="0.35">
       <c r="A11" s="53"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -8440,13 +8414,13 @@
         <v>41</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
@@ -8454,13 +8428,13 @@
         <v>48</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
@@ -8468,13 +8442,13 @@
         <v>65</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.6" x14ac:dyDescent="0.35">
@@ -8482,13 +8456,13 @@
         <v>69</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.6" x14ac:dyDescent="0.35">
@@ -8496,13 +8470,13 @@
         <v>71</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
@@ -8510,13 +8484,13 @@
         <v>76</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
@@ -8527,10 +8501,10 @@
         <v>85</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
@@ -8541,10 +8515,10 @@
         <v>91</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.6" x14ac:dyDescent="0.35">
@@ -8555,10 +8529,10 @@
         <v>28</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
@@ -8569,10 +8543,10 @@
         <v>34</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
@@ -8583,10 +8557,10 @@
         <v>61</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>

--- a/参考/参考/资料/1.18版本策划.xlsx
+++ b/参考/参考/资料/1.18版本策划.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hqyzsy\IdeaProjects\micro_machinery\参考\参考\资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19920\IdeaProjects\MicroMachienry_1.20.1\参考\参考\资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFB3B25-0946-4BD4-A97B-1BCDC265EA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFCDDFB-393B-430C-BA0E-E6D4BE9EE559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16457" yWindow="0" windowWidth="16457" windowHeight="17914" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增方块" sheetId="1" r:id="rId1"/>
@@ -4815,33 +4815,33 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="2.5703125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="20.2109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="2.625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="2.625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="10" customWidth="1"/>
+    <col min="7" max="7" width="2.625" style="10" customWidth="1"/>
     <col min="8" max="8" width="8.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.2109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.5703125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="12.35546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.0703125" style="10" customWidth="1"/>
-    <col min="13" max="13" width="2.5703125" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.35546875" style="10" customWidth="1"/>
-    <col min="15" max="15" width="23.140625" style="10" customWidth="1"/>
-    <col min="16" max="16" width="2.5703125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="12.35546875" style="10" customWidth="1"/>
-    <col min="18" max="18" width="15.35546875" style="10" customWidth="1"/>
-    <col min="19" max="19" width="2.5703125" style="10" customWidth="1"/>
-    <col min="20" max="20" width="8.640625" style="10"/>
-    <col min="21" max="21" width="17.2109375" style="10" customWidth="1"/>
-    <col min="22" max="16384" width="8.640625" style="10"/>
+    <col min="9" max="9" width="19.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="12.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="2.625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.375" style="10" customWidth="1"/>
+    <col min="15" max="15" width="23.125" style="10" customWidth="1"/>
+    <col min="16" max="16" width="2.625" style="10" customWidth="1"/>
+    <col min="17" max="17" width="12.375" style="10" customWidth="1"/>
+    <col min="18" max="18" width="15.375" style="10" customWidth="1"/>
+    <col min="19" max="19" width="2.625" style="10" customWidth="1"/>
+    <col min="20" max="20" width="8.625" style="10"/>
+    <col min="21" max="21" width="17.25" style="10" customWidth="1"/>
+    <col min="22" max="16384" width="8.625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:18" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>18</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="31" t="s">
         <v>600</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="10" t="s">
         <v>29</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="10" t="s">
         <v>35</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
         <v>37</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
         <v>44</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
         <v>50</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E12" s="10" t="s">
         <v>62</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="31" t="s">
         <v>634</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
         <v>70</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="s">
         <v>72</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="s">
         <v>77</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E17" s="10" t="s">
         <v>81</v>
       </c>
@@ -5382,7 +5382,7 @@
       </c>
       <c r="R17" s="11"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="10" t="s">
         <v>86</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
         <v>92</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
         <v>94</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" s="10" t="s">
         <v>96</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B22" s="10" t="s">
         <v>98</v>
       </c>
@@ -5492,7 +5492,7 @@
       <c r="N22" s="13"/>
       <c r="O22" s="11"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
         <v>101</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="N26" s="16"/>
       <c r="O26" s="11"/>
     </row>
@@ -5525,14 +5525,14 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.35546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="8.640625" style="11"/>
-    <col min="4" max="4" width="17.640625" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="11"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="44" t="s">
         <v>107</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="44" t="s">
         <v>108</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="44" t="s">
         <v>109</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="44" t="s">
         <v>110</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="44" t="s">
         <v>111</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="44" t="s">
         <v>112</v>
       </c>
@@ -5598,10 +5598,10 @@
         <v>492</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D8" s="23"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="44" t="s">
         <v>113</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="44" t="s">
         <v>114</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="44" t="s">
         <v>115</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="44" t="s">
         <v>116</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="44" t="s">
         <v>117</v>
       </c>
@@ -5656,10 +5656,10 @@
         <v>497</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D14" s="23"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" s="44" t="s">
         <v>118</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" s="44" t="s">
         <v>119</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="44" t="s">
         <v>120</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="44" t="s">
         <v>121</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="44" t="s">
         <v>122</v>
       </c>
@@ -5714,10 +5714,10 @@
         <v>504</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D20" s="23"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="44" t="s">
         <v>123</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="44" t="s">
         <v>124</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="41" t="s">
         <v>125</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="13" t="s">
         <v>126</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="13" t="s">
         <v>127</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="13" t="s">
         <v>128</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="13" t="s">
         <v>129</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="20" t="s">
         <v>426</v>
       </c>
@@ -5809,7 +5809,7 @@
       </c>
       <c r="F30" s="49"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="20" t="s">
         <v>427</v>
       </c>
@@ -5822,7 +5822,7 @@
       <c r="E31" s="49"/>
       <c r="F31" s="49"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="20" t="s">
         <v>428</v>
       </c>
@@ -5835,7 +5835,7 @@
       <c r="E32" s="49"/>
       <c r="F32" s="49"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="20" t="s">
         <v>429</v>
       </c>
@@ -5861,59 +5861,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AP28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="6.640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="13.35546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="2.5703125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="2.625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="2.625" style="10" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="10" customWidth="1"/>
-    <col min="6" max="6" width="26.0703125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="12.35546875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="19.2109375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="2.5703125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="10" customWidth="1"/>
-    <col min="12" max="12" width="20.2109375" style="11" customWidth="1"/>
-    <col min="13" max="13" width="2.5703125" style="10" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="10" customWidth="1"/>
-    <col min="15" max="15" width="20.2109375" style="11" customWidth="1"/>
-    <col min="16" max="16" width="2.5703125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="8.640625" style="10"/>
-    <col min="18" max="18" width="20.2109375" style="11" customWidth="1"/>
-    <col min="19" max="19" width="2.5703125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="26.125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="2.625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="19.25" style="11" customWidth="1"/>
+    <col min="10" max="10" width="2.625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="10" customWidth="1"/>
+    <col min="12" max="12" width="20.25" style="11" customWidth="1"/>
+    <col min="13" max="13" width="2.625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="10.375" style="10" customWidth="1"/>
+    <col min="15" max="15" width="20.25" style="11" customWidth="1"/>
+    <col min="16" max="16" width="2.625" style="10" customWidth="1"/>
+    <col min="17" max="17" width="8.625" style="10"/>
+    <col min="18" max="18" width="20.25" style="11" customWidth="1"/>
+    <col min="19" max="19" width="2.625" style="10" customWidth="1"/>
     <col min="20" max="20" width="6" style="10" customWidth="1"/>
-    <col min="21" max="21" width="15.35546875" style="11" customWidth="1"/>
-    <col min="22" max="22" width="2.5703125" style="10" customWidth="1"/>
-    <col min="23" max="23" width="14.35546875" style="10" customWidth="1"/>
-    <col min="24" max="24" width="29.0703125" style="11" customWidth="1"/>
-    <col min="25" max="25" width="2.5703125" style="10" customWidth="1"/>
+    <col min="21" max="21" width="15.375" style="11" customWidth="1"/>
+    <col min="22" max="22" width="2.625" style="10" customWidth="1"/>
+    <col min="23" max="23" width="14.375" style="10" customWidth="1"/>
+    <col min="24" max="24" width="29.125" style="11" customWidth="1"/>
+    <col min="25" max="25" width="2.625" style="10" customWidth="1"/>
     <col min="26" max="26" width="8.5" style="10" customWidth="1"/>
-    <col min="27" max="27" width="10.42578125" style="10" customWidth="1"/>
-    <col min="28" max="28" width="2.5703125" style="10" customWidth="1"/>
-    <col min="29" max="29" width="10.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.2109375" style="11" customWidth="1"/>
-    <col min="31" max="31" width="2.5703125" style="10" customWidth="1"/>
-    <col min="32" max="32" width="12.35546875" style="10" customWidth="1"/>
-    <col min="33" max="33" width="25.140625" style="11" customWidth="1"/>
-    <col min="34" max="34" width="2.5703125" style="10" customWidth="1"/>
-    <col min="35" max="35" width="12.35546875" style="10" customWidth="1"/>
-    <col min="36" max="36" width="21.140625" style="11" customWidth="1"/>
-    <col min="37" max="37" width="2.5703125" style="10" customWidth="1"/>
-    <col min="38" max="38" width="12.35546875" style="10" customWidth="1"/>
-    <col min="39" max="39" width="23.140625" style="11" customWidth="1"/>
-    <col min="40" max="40" width="2.5703125" style="10" customWidth="1"/>
-    <col min="41" max="41" width="14.35546875" style="10" customWidth="1"/>
-    <col min="42" max="42" width="20.2109375" style="11" customWidth="1"/>
-    <col min="43" max="43" width="2.5703125" style="10" customWidth="1"/>
-    <col min="44" max="16384" width="8.640625" style="10"/>
+    <col min="27" max="27" width="10.375" style="10" customWidth="1"/>
+    <col min="28" max="28" width="2.625" style="10" customWidth="1"/>
+    <col min="29" max="29" width="10.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.25" style="11" customWidth="1"/>
+    <col min="31" max="31" width="2.625" style="10" customWidth="1"/>
+    <col min="32" max="32" width="12.375" style="10" customWidth="1"/>
+    <col min="33" max="33" width="25.125" style="11" customWidth="1"/>
+    <col min="34" max="34" width="2.625" style="10" customWidth="1"/>
+    <col min="35" max="35" width="12.375" style="10" customWidth="1"/>
+    <col min="36" max="36" width="21.125" style="11" customWidth="1"/>
+    <col min="37" max="37" width="2.625" style="10" customWidth="1"/>
+    <col min="38" max="38" width="12.375" style="10" customWidth="1"/>
+    <col min="39" max="39" width="23.125" style="11" customWidth="1"/>
+    <col min="40" max="40" width="2.625" style="10" customWidth="1"/>
+    <col min="41" max="41" width="14.375" style="10" customWidth="1"/>
+    <col min="42" max="42" width="20.25" style="11" customWidth="1"/>
+    <col min="43" max="43" width="2.625" style="10" customWidth="1"/>
+    <col min="44" max="16384" width="8.625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:42" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:42" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B1" s="9" t="s">
         <v>130</v>
       </c>
@@ -5968,7 +5968,7 @@
       </c>
       <c r="AP1" s="12"/>
     </row>
-    <row r="2" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
         <v>144</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="3" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
         <v>152</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="4" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>163</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="5" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
         <v>174</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="6" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B6" s="10" t="s">
         <v>187</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="7" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:42" x14ac:dyDescent="0.2">
       <c r="C7" s="11"/>
       <c r="AI7" s="10" t="s">
         <v>193</v>
@@ -6314,7 +6314,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
         <v>196</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="9" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
         <v>210</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="10" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
         <v>217</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="11" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
         <v>223</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="12" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:42" x14ac:dyDescent="0.2">
       <c r="H12" s="10" t="s">
         <v>228</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="13" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:42" x14ac:dyDescent="0.2">
       <c r="E13" s="10" t="s">
         <v>236</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:42" x14ac:dyDescent="0.2">
       <c r="E14" s="10" t="s">
         <v>242</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:42" x14ac:dyDescent="0.2">
       <c r="E15" s="10" t="s">
         <v>248</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="16" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:42" x14ac:dyDescent="0.2">
       <c r="H16" s="10" t="s">
         <v>259</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="17" spans="5:42" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:42" x14ac:dyDescent="0.2">
       <c r="H17" s="10" t="s">
         <v>271</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="18" spans="5:42" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:42" x14ac:dyDescent="0.2">
       <c r="H18" s="10" t="s">
         <v>283</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="19" spans="5:42" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:42" x14ac:dyDescent="0.2">
       <c r="E19" s="50" t="s">
         <v>432</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="20" spans="5:42" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:42" x14ac:dyDescent="0.2">
       <c r="H20" s="10" t="s">
         <v>299</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="21" spans="5:42" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:42" x14ac:dyDescent="0.2">
       <c r="H21" s="10" t="s">
         <v>304</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="22" spans="5:42" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:42" x14ac:dyDescent="0.2">
       <c r="AL22" s="10" t="s">
         <v>320</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="5:42" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:42" x14ac:dyDescent="0.2">
       <c r="H23" s="10" t="s">
         <v>313</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="24" spans="5:42" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:42" x14ac:dyDescent="0.2">
       <c r="H24" s="10" t="s">
         <v>316</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="26" spans="5:42" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:42" x14ac:dyDescent="0.2">
       <c r="H26" s="10" t="s">
         <v>323</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="27" spans="5:42" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:42" x14ac:dyDescent="0.2">
       <c r="H27" s="10" t="s">
         <v>328</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="28" spans="5:42" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:42" x14ac:dyDescent="0.2">
       <c r="H28" s="10" t="s">
         <v>335</v>
       </c>
@@ -7224,27 +7224,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.640625" style="6"/>
-    <col min="2" max="2" width="9.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="6"/>
+    <col min="2" max="2" width="9.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="35" customWidth="1"/>
     <col min="4" max="4" width="6" style="6" customWidth="1"/>
-    <col min="5" max="5" width="45.640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.35546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="45.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="19.875" customWidth="1"/>
     <col min="8" max="9" width="6" style="6" customWidth="1"/>
-    <col min="10" max="10" width="3.640625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="8.640625" style="6"/>
-    <col min="12" max="12" width="13.0703125" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="8.640625" style="6"/>
+    <col min="10" max="10" width="3.625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="6"/>
+    <col min="12" max="12" width="13.125" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="8.625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>342</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B2" s="46" t="s">
         <v>350</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B3" s="47" t="s">
         <v>556</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B4" s="47" t="s">
         <v>557</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="56.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="57" x14ac:dyDescent="0.2">
       <c r="B6" s="34" t="s">
         <v>358</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B7" s="48" t="s">
         <v>362</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="48" t="s">
         <v>364</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>368</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>370</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="99" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B11" s="48" t="s">
         <v>373</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="42.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>375</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
         <v>380</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
         <v>830</v>
       </c>
@@ -7616,24 +7616,24 @@
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.640625" style="2"/>
+    <col min="1" max="1" width="2.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="2"/>
     <col min="5" max="5" width="49" style="2" customWidth="1"/>
     <col min="6" max="6" width="15" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.2109375" style="2" customWidth="1"/>
-    <col min="8" max="10" width="6.35546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.35546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.640625" style="2"/>
+    <col min="7" max="7" width="19.25" style="2" customWidth="1"/>
+    <col min="8" max="10" width="6.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21.75" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>342</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="56.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" ht="57" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>385</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="42.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>390</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>394</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="56.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="57" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
         <v>801</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="56.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>400</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="113.15" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" ht="114" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>403</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="56.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" ht="57" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>405</v>
       </c>
@@ -7863,7 +7863,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>408</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="155.6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" ht="156.75" x14ac:dyDescent="0.2">
       <c r="B11" s="18" t="s">
         <v>805</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="99" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B12" s="18" t="s">
         <v>802</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="70.75" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B13" s="18" t="s">
         <v>803</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="29.15" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="30" x14ac:dyDescent="0.2">
       <c r="B14" s="18" t="s">
         <v>807</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>413</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="29.15" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" ht="30" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>415</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="141.44999999999999" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:14" ht="142.5" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>417</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="127.3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:14" ht="142.5" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>418</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="198" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" ht="199.5" x14ac:dyDescent="0.2">
       <c r="B20" s="18" t="s">
         <v>517</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="8"/>
       <c r="D22" s="5"/>
     </row>
@@ -8138,17 +8138,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="26"/>
-    <col min="2" max="2" width="14.35546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="26"/>
     <col min="4" max="4" width="15.5" style="26" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="26" customWidth="1"/>
+    <col min="5" max="5" width="22.75" style="26" customWidth="1"/>
     <col min="6" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" s="25" t="s">
         <v>440</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="25" t="s">
         <v>441</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="25" t="s">
         <v>442</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="25" t="s">
         <v>451</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="25" t="s">
         <v>443</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="25" t="s">
         <v>444</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="25" t="s">
         <v>445</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="25" t="s">
         <v>446</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>447</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="25" t="s">
         <v>448</v>
       </c>
@@ -8269,17 +8269,17 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="29"/>
-    <col min="2" max="2" width="8.640625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="29" customWidth="1"/>
-    <col min="4" max="5" width="23.92578125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="21.0703125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="25.875" style="29" customWidth="1"/>
+    <col min="4" max="5" width="23.875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="29" customWidth="1"/>
     <col min="7" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="56.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
         <v>468</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="52"/>
       <c r="B3" s="6">
         <v>2</v>
@@ -8314,7 +8314,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="56.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="52"/>
       <c r="B4" s="6">
         <v>3</v>
@@ -8327,7 +8327,7 @@
       </c>
       <c r="F4" s="28"/>
     </row>
-    <row r="5" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="52"/>
       <c r="B5" s="6">
         <v>4</v>
@@ -8337,7 +8337,7 @@
       </c>
       <c r="E5" s="18"/>
     </row>
-    <row r="6" spans="1:6" ht="70.75" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="52"/>
       <c r="B6" s="6">
         <v>5</v>
@@ -8355,7 +8355,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="52"/>
       <c r="B7" s="6">
         <v>6</v>
@@ -8364,13 +8364,13 @@
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="99" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A10" s="53" t="s">
         <v>477</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="70.75" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A11" s="53"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
@@ -8407,9 +8407,9 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>41</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>48</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>65</v>
       </c>
@@ -8451,7 +8451,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>69</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>71</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>76</v>
       </c>
@@ -8493,7 +8493,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>84</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>90</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>27</v>
       </c>
@@ -8535,7 +8535,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>33</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="29.15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>60</v>
       </c>
